--- a/support/support.xlsx
+++ b/support/support.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imgcascz-my.sharepoint.com/personal/osvoboda_img_cas_cz/Documents/txt/iCat/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Onekkjhvmbbvmjh Drive\Documents\GitHub\iCat\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="936" documentId="13_ncr:1_{05D72ECC-0AD8-49D5-9B72-3912067E3E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D93F7896-347B-4C6C-B0FC-600525BF0E75}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13301A34-F559-4222-BBD3-BD134572FDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>3D print</t>
   </si>
   <si>
-    <t>Arducam</t>
-  </si>
-  <si>
     <t>Arduino Uno Rev3</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>https://www.aliexpress.com/item/10000139502321.html</t>
   </si>
   <si>
-    <t>3x50 pcs</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Ochoos-Stainless-DIN912-Hexagon-Socket/dp/B07R68NQYP/</t>
   </si>
   <si>
@@ -417,9 +411,6 @@
     <t xml:space="preserve">Dupont Line M-M + F-M + F-F Jumper Wire 10cm, 20CM </t>
   </si>
   <si>
-    <t>3 sets/pc</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Solderless-Multicolor-Electronic-Breadboard-Protoboard/dp/B09FPJ9TSP/</t>
   </si>
   <si>
@@ -715,6 +706,15 @@
   </si>
   <si>
     <t>Voltage Input</t>
+  </si>
+  <si>
+    <t>Arducam 5MP Plus OV5642</t>
+  </si>
+  <si>
+    <t>4x50 pcs</t>
+  </si>
+  <si>
+    <t>3x30 pcs</t>
   </si>
 </sst>
 </file>
@@ -1564,24 +1564,6 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1654,6 +1636,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -2061,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N49"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q45"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,16 +2086,16 @@
       <c r="B2" s="5"/>
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
+      <c r="E2" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
@@ -2103,25 +2103,25 @@
         <v>0</v>
       </c>
       <c r="D3" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>142</v>
-      </c>
       <c r="G3" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
@@ -2139,26 +2139,26 @@
         <v>27.6</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="44">
         <f>D4*26.71</f>
         <v>26.71</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="18" t="s">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="D5" s="19">
         <v>1</v>
@@ -2168,26 +2168,26 @@
         <v>39.99</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="45">
         <f>D5*63</f>
         <v>63</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
@@ -2197,33 +2197,33 @@
         <v>4.47</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="45">
         <f>D6*0.52</f>
         <v>0.52</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="54"/>
       <c r="M6" s="54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N6" s="54" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="19">
         <v>1</v>
@@ -2233,20 +2233,20 @@
         <v>7.99</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="45">
         <f>D7*2.41</f>
         <v>2.41</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="55" t="str">
         <f>B4</f>
@@ -2264,7 +2264,7 @@
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="19">
         <v>2</v>
@@ -2274,20 +2274,20 @@
         <v>19.98</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="45">
         <f>D8*1.88</f>
         <v>3.76</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8" s="57" t="str">
         <f>B18</f>
@@ -2305,7 +2305,7 @@
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
@@ -2315,37 +2315,37 @@
         <v>33.86</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="45">
         <f>D9*9.16</f>
         <v>18.32</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="57" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="58">
         <f>SUM(E32:E37)</f>
-        <v>57.239999999999995</v>
+        <v>65.23</v>
       </c>
       <c r="N9" s="58">
         <f>SUM(H32:H37)</f>
-        <v>28.62</v>
+        <v>31.890000000000004</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
@@ -2355,23 +2355,23 @@
         <v>9.7899999999999991</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="45">
         <f>D10*3.23</f>
         <v>3.23</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M10" s="58">
         <f>SUM(E39:E40)</f>
@@ -2385,7 +2385,7 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="19">
         <v>1</v>
@@ -2395,22 +2395,22 @@
         <v>2.39</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="45">
         <v>0.36</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L11" s="57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M11" s="58">
         <f>SUM(E40)</f>
@@ -2424,7 +2424,7 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="19">
         <v>1</v>
@@ -2434,20 +2434,20 @@
         <v>5.49</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="45">
         <f>D12*1.53</f>
         <v>1.53</v>
       </c>
       <c r="I12" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>36</v>
       </c>
       <c r="L12" s="57" t="str">
         <f>B42</f>
@@ -2465,7 +2465,7 @@
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="19">
         <v>1</v>
@@ -2475,37 +2475,37 @@
         <v>5.49</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="45">
         <f>D13*1.52</f>
         <v>1.52</v>
       </c>
       <c r="I13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>36</v>
-      </c>
       <c r="L13" s="59" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M13" s="60">
         <f>M12+M10+M9+M8+M7</f>
-        <v>1152.3399999999999</v>
+        <v>1160.33</v>
       </c>
       <c r="N13" s="60">
         <f>N12+N10+N9+N8+N7</f>
-        <v>946.25</v>
+        <v>949.52</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
@@ -2515,36 +2515,36 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="F14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="H14" s="45">
         <v>1.73</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M14" s="62">
         <f>M7+M8+M9+M11+M12</f>
-        <v>640.34</v>
+        <v>648.33000000000004</v>
       </c>
       <c r="N14" s="62">
         <f>N7+N8+N9+N11+N12</f>
-        <v>297.25</v>
+        <v>300.52</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="19">
         <v>1</v>
@@ -2554,26 +2554,26 @@
         <v>0.99</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="45">
         <f>D15*1.57</f>
         <v>1.57</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="19">
         <v>1</v>
@@ -2583,20 +2583,20 @@
         <v>7.77</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="45">
         <f>D16*3.79</f>
         <v>3.79</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="19">
         <v>1</v>
@@ -2625,26 +2625,26 @@
         <v>6.99</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="45">
         <f>D18*1.78</f>
         <v>1.78</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="19">
         <v>1</v>
@@ -2654,26 +2654,26 @@
         <v>7.29</v>
       </c>
       <c r="F19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="H19" s="45">
         <f>D19*0.6</f>
         <v>0.6</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
@@ -2683,26 +2683,26 @@
         <v>9.99</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="45">
         <f>D20*3.74</f>
         <v>3.74</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="19">
         <v>1</v>
@@ -2712,26 +2712,26 @@
         <v>11.47</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" s="45">
         <f>D21*5.93</f>
         <v>5.93</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="19">
         <v>4</v>
@@ -2741,26 +2741,26 @@
         <v>35.06</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="H22" s="45">
         <f>D22*1.8</f>
         <v>7.2</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="19">
         <v>1</v>
@@ -2770,26 +2770,26 @@
         <v>8.99</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="45">
         <f>D23*10*0.45</f>
         <v>4.5</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -2799,25 +2799,25 @@
         <v>10</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="45">
         <v>3</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
@@ -2827,26 +2827,26 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" s="45">
         <f>D25*23</f>
         <v>23</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
@@ -2856,26 +2856,26 @@
         <v>8.99</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H26" s="45">
         <f>D26*2.9</f>
         <v>2.9</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D27" s="19">
         <v>1</v>
@@ -2885,26 +2885,26 @@
         <v>6.99</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H27" s="45">
         <f>D27*0.92</f>
         <v>0.92</v>
       </c>
       <c r="I27" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="19">
         <v>1</v>
@@ -2914,26 +2914,26 @@
         <v>66.75</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="45">
         <f>D28*1</f>
         <v>1</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="19">
         <v>1</v>
@@ -2943,23 +2943,23 @@
         <v>22.3</v>
       </c>
       <c r="F29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="H29" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="19">
         <v>1</v>
@@ -2969,20 +2969,20 @@
         <v>7.59</v>
       </c>
       <c r="F30" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="H30" s="45">
         <f>D30*7.61</f>
         <v>7.61</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="19">
         <v>1</v>
@@ -3011,26 +3011,26 @@
         <v>11.89</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H32" s="45">
         <f>D32*11.71</f>
         <v>11.71</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="19">
         <v>1</v>
@@ -3039,26 +3039,26 @@
         <v>0</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H33" s="45">
         <f>D33*2.27</f>
         <v>2.27</v>
       </c>
       <c r="I33" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="19">
         <v>1</v>
@@ -3068,55 +3068,55 @@
         <v>6.95</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H34" s="45">
         <f>D34*3.62</f>
         <v>3.62</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="41">
-        <f>8.99+9.99</f>
-        <v>18.98</v>
+        <f>D35*8.99</f>
+        <v>26.97</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="H35" s="45">
         <f>D35*3.27</f>
-        <v>6.54</v>
+        <v>9.81</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="19">
         <v>1</v>
@@ -3126,26 +3126,26 @@
         <v>11.44</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H36" s="45">
         <f>D36*2.09</f>
         <v>2.09</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="19">
         <v>1</v>
@@ -3155,20 +3155,20 @@
         <v>7.98</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H37" s="45">
         <f>D37*2.39</f>
         <v>2.39</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -3187,7 +3187,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D39" s="19">
         <v>1</v>
@@ -3197,26 +3197,26 @@
         <v>512</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H39" s="45">
         <f>D39*649</f>
         <v>649</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" s="19">
         <v>2</v>
@@ -3226,20 +3226,20 @@
         <v>115.84</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H40" s="45">
         <f>D40*23.9</f>
         <v>47.8</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -3258,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="19">
         <v>1</v>
@@ -3268,26 +3268,26 @@
         <v>8.99</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H42" s="45">
         <f>D42*0.49</f>
         <v>0.49</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="19">
         <v>1</v>
@@ -3297,26 +3297,26 @@
         <v>36.619999999999997</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H43" s="45">
         <f>D43*8.21</f>
         <v>8.2100000000000009</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="19">
         <v>1</v>
@@ -3326,26 +3326,26 @@
         <v>18.98</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H44" s="45">
         <f>D44*21.01</f>
         <v>21.01</v>
       </c>
       <c r="I44" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" s="23">
         <v>1</v>
@@ -3355,19 +3355,19 @@
         <v>5.17</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H45" s="47">
         <v>0.49</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -3376,7 +3376,7 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -3486,424 +3486,424 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8566A40A-FDA8-47DE-9C3D-14AD50A186E9}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="80" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="80" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="80" customWidth="1"/>
-    <col min="4" max="4" width="27" style="80" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.5703125" style="80"/>
+    <col min="1" max="1" width="18.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="74" customWidth="1"/>
+    <col min="4" max="4" width="27" style="74" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="E1" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="71" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="69">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="C2" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="75">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="75">
-        <v>0</v>
-      </c>
-      <c r="B2" s="76" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="75">
+        <v>2</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="E4" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="81">
-        <v>1</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="83" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="75">
+        <v>3</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="81">
-        <v>2</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84" t="s">
+      <c r="D5" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E5" s="80" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
-        <v>3</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="83" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
+        <v>4</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="E6" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="86" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>5</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="81" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
-        <v>4</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="87" t="s">
+      <c r="E7" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="86" t="s">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
+        <v>6</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="81" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
-        <v>5</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="87" t="s">
+      <c r="E8" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="86" t="s">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
+        <v>7</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="81" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
-        <v>6</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="87" t="s">
+      <c r="E9" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="86" t="s">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
+        <v>8</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="81" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
-        <v>7</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="87" t="s">
+      <c r="E10" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="86" t="s">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
+        <v>9</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="81" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
-        <v>8</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="87" t="s">
+      <c r="E11" s="80"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
+        <v>10</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E12" s="80" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
-        <v>9</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="87" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
+        <v>11</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="86"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="81">
-        <v>10</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="87" t="s">
+      <c r="E13" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="86" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
+        <v>12</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="81" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="81">
-        <v>11</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="87" t="s">
+      <c r="E14" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="86" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
+        <v>13</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="81" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
-        <v>12</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="87" t="s">
+      <c r="E15" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="86" t="s">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="81">
-        <v>13</v>
-      </c>
-      <c r="B15" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="87" t="s">
+      <c r="B16" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="C16" s="82"/>
+      <c r="D16" s="81" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
+      <c r="E16" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="82" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="87" t="s">
+      <c r="B17" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E17" s="80" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="87" t="s">
+      <c r="B18" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="82"/>
+      <c r="D18" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E18" s="80"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="83" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="B19" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="82"/>
+      <c r="D19" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="87" t="s">
+      <c r="E19" s="80"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="86"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+      <c r="B20" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="82"/>
+      <c r="D20" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="B19" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="87" t="s">
+      <c r="E20" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="86"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="87" t="s">
+      <c r="B21" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E21" s="80" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="87" t="s">
+      <c r="B22" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="C22" s="77" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="80"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B23" s="76"/>
+      <c r="C23" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="D23" s="81"/>
+      <c r="E23" s="80"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="86"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="90" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83" t="s">
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="84" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="86"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83" t="s">
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="90" t="s">
+      <c r="B26" s="76"/>
+      <c r="C26" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83" t="s">
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="96"/>
+      <c r="D28" s="90"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="96"/>
+      <c r="D29" s="90"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="96"/>
+      <c r="D30" s="90"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="96"/>
+      <c r="D31" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/support/support.xlsx
+++ b/support/support.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Onekkjhvmbbvmjh Drive\Documents\GitHub\iCat\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13301A34-F559-4222-BBD3-BD134572FDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E6BB63-73E7-4DB3-B7D1-6DBEB55BA9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -387,15 +387,9 @@
     <t>https://www.aliexpress.com/item/1005004599068177.html</t>
   </si>
   <si>
-    <t>Male Female Plug 12V DC Power Pigtail Cable Jack</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/1005005601514426.html</t>
   </si>
   <si>
-    <t>Female And Male DC Connectors 2.1x5.5mm</t>
-  </si>
-  <si>
     <t>5+5 pcs</t>
   </si>
   <si>
@@ -715,6 +709,12 @@
   </si>
   <si>
     <t>3x30 pcs</t>
+  </si>
+  <si>
+    <t>Female Plug 12V DC Power Pigtail Cable Jack</t>
+  </si>
+  <si>
+    <t>Male DC Connectors 2.1x5.5mm</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2062,7 @@
   <dimension ref="B1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,12 +2087,12 @@
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
       <c r="E2" s="94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F2" s="95"/>
       <c r="G2" s="96"/>
       <c r="H2" s="91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I2" s="92"/>
       <c r="J2" s="93"/>
@@ -2103,22 +2103,22 @@
         <v>0</v>
       </c>
       <c r="D3" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>138</v>
-      </c>
       <c r="F3" s="35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>26</v>
@@ -2158,7 +2158,7 @@
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="19">
         <v>1</v>
@@ -2214,10 +2214,10 @@
       </c>
       <c r="L6" s="54"/>
       <c r="M6" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N6" s="54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -2371,7 +2371,7 @@
         <v>28</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M10" s="58">
         <f>SUM(E39:E40)</f>
@@ -2410,7 +2410,7 @@
         <v>28</v>
       </c>
       <c r="L11" s="57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M11" s="58">
         <f>SUM(E40)</f>
@@ -2491,7 +2491,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M13" s="60">
         <f>M12+M10+M9+M8+M7</f>
@@ -2530,7 +2530,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M14" s="62">
         <f>M7+M8+M9+M11+M12</f>
@@ -2744,7 +2744,7 @@
         <v>78</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H22" s="45">
         <f>D22*1.8</f>
@@ -2754,7 +2754,7 @@
         <v>77</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -2927,7 +2927,7 @@
         <v>44</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="D32" s="19">
         <v>1</v>
@@ -3011,10 +3011,10 @@
         <v>11.89</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H32" s="45">
         <f>D32*11.71</f>
@@ -3030,7 +3030,7 @@
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="18" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="D33" s="19">
         <v>1</v>
@@ -3039,20 +3039,20 @@
         <v>0</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H33" s="45">
         <f>D33*2.27</f>
         <v>2.27</v>
       </c>
       <c r="I33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="19">
         <v>3</v>
@@ -3097,26 +3097,26 @@
         <v>26.97</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H35" s="45">
         <f>D35*3.27</f>
         <v>9.81</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="19">
         <v>1</v>
@@ -3126,7 +3126,7 @@
         <v>11.44</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>82</v>
@@ -3136,7 +3136,7 @@
         <v>2.09</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J36" s="21" t="s">
         <v>82</v>
@@ -3145,7 +3145,7 @@
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="19">
         <v>1</v>
@@ -3155,20 +3155,20 @@
         <v>7.98</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H37" s="45">
         <f>D37*2.39</f>
         <v>2.39</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -3187,7 +3187,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="19">
         <v>1</v>
@@ -3197,7 +3197,7 @@
         <v>512</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>28</v>
@@ -3207,7 +3207,7 @@
         <v>649</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J39" s="21" t="s">
         <v>28</v>
@@ -3216,7 +3216,7 @@
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="19">
         <v>2</v>
@@ -3226,7 +3226,7 @@
         <v>115.84</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>28</v>
@@ -3236,7 +3236,7 @@
         <v>47.8</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J40" s="21" t="s">
         <v>28</v>
@@ -3258,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="19">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>8.99</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>28</v>
@@ -3278,7 +3278,7 @@
         <v>0.49</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J42" s="21" t="s">
         <v>28</v>
@@ -3287,7 +3287,7 @@
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="19">
         <v>1</v>
@@ -3297,17 +3297,17 @@
         <v>36.619999999999997</v>
       </c>
       <c r="F43" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="H43" s="45">
         <f>D43*8.21</f>
         <v>8.2100000000000009</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J43" s="21" t="s">
         <v>82</v>
@@ -3345,7 +3345,7 @@
     <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="23">
         <v>1</v>
@@ -3355,7 +3355,7 @@
         <v>5.17</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>28</v>
@@ -3364,7 +3364,7 @@
         <v>0.49</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J45" s="25" t="s">
         <v>28</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -3502,19 +3502,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="D1" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="E1" s="67" t="s">
         <v>148</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3522,10 +3522,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="73"/>
@@ -3541,10 +3541,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>151</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>153</v>
       </c>
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
@@ -3554,14 +3554,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3569,16 +3569,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="80" t="s">
         <v>156</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3586,14 +3586,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="82"/>
       <c r="D6" s="81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3601,16 +3601,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3618,16 +3618,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -3635,14 +3635,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="82"/>
       <c r="D9" s="81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3650,14 +3650,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="82"/>
       <c r="D10" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3665,13 +3665,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E11" s="80"/>
     </row>
@@ -3680,16 +3680,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3697,16 +3697,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3714,14 +3714,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="82"/>
       <c r="D14" s="81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3729,166 +3729,166 @@
         <v>13</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="82"/>
       <c r="D15" s="81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" s="82"/>
       <c r="D16" s="81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" s="82"/>
       <c r="D17" s="81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="83" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="82"/>
       <c r="D18" s="81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E18" s="80"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="83" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="81" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E19" s="80"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C20" s="82"/>
       <c r="D20" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" s="82"/>
       <c r="D21" s="81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="77" t="s">
         <v>195</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>197</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="80"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="84" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B23" s="76"/>
       <c r="C23" s="77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="80"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="84" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B24" s="76"/>
       <c r="C24" s="77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="79"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B25" s="76"/>
       <c r="C25" s="77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D25" s="78"/>
       <c r="E25" s="79"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B26" s="76"/>
       <c r="C26" s="77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D26" s="78"/>
       <c r="E26" s="79"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="85" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B27" s="86"/>
       <c r="C27" s="87" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D27" s="88"/>
       <c r="E27" s="89"/>

--- a/support/support.xlsx
+++ b/support/support.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Onekkjhvmbbvmjh Drive\Documents\GitHub\iCat\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E6BB63-73E7-4DB3-B7D1-6DBEB55BA9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB8052-908F-4C51-93D9-38C9E1B40B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="215">
   <si>
     <t>Item</t>
   </si>
@@ -102,6 +102,9 @@
     <t>3D print</t>
   </si>
   <si>
+    <t>Arducam</t>
+  </si>
+  <si>
     <t>Arduino Uno Rev3</t>
   </si>
   <si>
@@ -318,6 +321,9 @@
     <t>https://www.aliexpress.com/item/10000139502321.html</t>
   </si>
   <si>
+    <t>3x50 pcs</t>
+  </si>
+  <si>
     <t>https://www.amazon.com/Ochoos-Stainless-DIN912-Hexagon-Socket/dp/B07R68NQYP/</t>
   </si>
   <si>
@@ -387,9 +393,15 @@
     <t>https://www.aliexpress.com/item/1005004599068177.html</t>
   </si>
   <si>
+    <t>Male Female Plug 12V DC Power Pigtail Cable Jack</t>
+  </si>
+  <si>
     <t>https://www.aliexpress.com/item/1005005601514426.html</t>
   </si>
   <si>
+    <t>Female And Male DC Connectors 2.1x5.5mm</t>
+  </si>
+  <si>
     <t>5+5 pcs</t>
   </si>
   <si>
@@ -405,6 +417,9 @@
     <t xml:space="preserve">Dupont Line M-M + F-M + F-F Jumper Wire 10cm, 20CM </t>
   </si>
   <si>
+    <t>3 sets/pc</t>
+  </si>
+  <si>
     <t>https://www.amazon.com/Solderless-Multicolor-Electronic-Breadboard-Protoboard/dp/B09FPJ9TSP/</t>
   </si>
   <si>
@@ -621,9 +636,6 @@
     <t>Abort</t>
   </si>
   <si>
-    <t>Termistor - NTC</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -702,19 +714,19 @@
     <t>Voltage Input</t>
   </si>
   <si>
-    <t>Arducam 5MP Plus OV5642</t>
-  </si>
-  <si>
-    <t>4x50 pcs</t>
-  </si>
-  <si>
-    <t>3x30 pcs</t>
-  </si>
-  <si>
-    <t>Female Plug 12V DC Power Pigtail Cable Jack</t>
-  </si>
-  <si>
-    <t>Male DC Connectors 2.1x5.5mm</t>
+    <t>https://www.amazon.com/ZYAMY-2-54mm-Standard-Circuit-Connection/dp/B077957RN7/</t>
+  </si>
+  <si>
+    <t>Black Jumper Caps</t>
+  </si>
+  <si>
+    <t>30 pcs</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005005414075962.html</t>
+  </si>
+  <si>
+    <t>Thermistor - NTC</t>
   </si>
 </sst>
 </file>
@@ -2059,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N49"/>
+  <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,12 +2099,12 @@
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
       <c r="E2" s="94" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F2" s="95"/>
       <c r="G2" s="96"/>
       <c r="H2" s="91" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I2" s="92"/>
       <c r="J2" s="93"/>
@@ -2103,25 +2115,25 @@
         <v>0</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -2129,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
@@ -2139,26 +2151,26 @@
         <v>27.6</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="44">
         <f>D4*26.71</f>
         <v>26.71</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="18" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="D5" s="19">
         <v>1</v>
@@ -2168,26 +2180,26 @@
         <v>39.99</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="45">
         <f>D5*63</f>
         <v>63</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
@@ -2197,33 +2209,33 @@
         <v>4.47</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="45">
         <f>D6*0.52</f>
         <v>0.52</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="54"/>
       <c r="M6" s="54" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N6" s="54" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="19">
         <v>1</v>
@@ -2233,20 +2245,20 @@
         <v>7.99</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="45">
         <f>D7*2.41</f>
         <v>2.41</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L7" s="55" t="str">
         <f>B4</f>
@@ -2264,7 +2276,7 @@
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="19">
         <v>2</v>
@@ -2274,20 +2286,20 @@
         <v>19.98</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="45">
         <f>D8*1.88</f>
         <v>3.76</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" s="57" t="str">
         <f>B18</f>
@@ -2305,7 +2317,7 @@
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
@@ -2315,37 +2327,37 @@
         <v>33.86</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="45">
         <f>D9*9.16</f>
         <v>18.32</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9" s="57" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="58">
         <f>SUM(E32:E37)</f>
-        <v>65.23</v>
+        <v>57.239999999999995</v>
       </c>
       <c r="N9" s="58">
         <f>SUM(H32:H37)</f>
-        <v>31.890000000000004</v>
+        <v>28.62</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
@@ -2355,37 +2367,37 @@
         <v>9.7899999999999991</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="45">
         <f>D10*3.23</f>
         <v>3.23</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M10" s="58">
-        <f>SUM(E39:E40)</f>
+        <f>SUM(E40:E41)</f>
         <v>627.84</v>
       </c>
       <c r="N10" s="58">
-        <f>SUM(H39:H40)</f>
+        <f>SUM(H40:H41)</f>
         <v>696.8</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="19">
         <v>1</v>
@@ -2395,36 +2407,36 @@
         <v>2.39</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="45">
         <v>0.36</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L11" s="57" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M11" s="58">
-        <f>SUM(E40)</f>
+        <f>SUM(E41)</f>
         <v>115.84</v>
       </c>
       <c r="N11" s="58">
-        <f>SUM(H40)</f>
+        <f>SUM(H41)</f>
         <v>47.8</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="19">
         <v>1</v>
@@ -2434,38 +2446,38 @@
         <v>5.49</v>
       </c>
       <c r="F12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="45">
         <f>D12*1.53</f>
         <v>1.53</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L12" s="57" t="str">
-        <f>B42</f>
+        <f>B43</f>
         <v>Tools</v>
       </c>
       <c r="M12" s="58">
-        <f>SUM(E42:E45)</f>
+        <f>SUM(E43:E46)</f>
         <v>69.760000000000005</v>
       </c>
       <c r="N12" s="58">
-        <f>SUM(H42:H45)</f>
+        <f>SUM(H43:H46)</f>
         <v>30.2</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="19">
         <v>1</v>
@@ -2475,37 +2487,37 @@
         <v>5.49</v>
       </c>
       <c r="F13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="H13" s="45">
         <f>D13*1.52</f>
         <v>1.52</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M13" s="60">
         <f>M12+M10+M9+M8+M7</f>
-        <v>1160.33</v>
+        <v>1152.3399999999999</v>
       </c>
       <c r="N13" s="60">
         <f>N12+N10+N9+N8+N7</f>
-        <v>949.52</v>
+        <v>946.25</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
@@ -2515,36 +2527,36 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="45">
         <v>1.73</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M14" s="62">
         <f>M7+M8+M9+M11+M12</f>
-        <v>648.33000000000004</v>
+        <v>640.34</v>
       </c>
       <c r="N14" s="62">
         <f>N7+N8+N9+N11+N12</f>
-        <v>300.52</v>
+        <v>297.25</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="19">
         <v>1</v>
@@ -2554,26 +2566,26 @@
         <v>0.99</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="45">
         <f>D15*1.57</f>
         <v>1.57</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="19">
         <v>1</v>
@@ -2583,20 +2595,20 @@
         <v>7.77</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="45">
         <f>D16*3.79</f>
         <v>3.79</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -2615,7 +2627,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="19">
         <v>1</v>
@@ -2625,26 +2637,26 @@
         <v>6.99</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H18" s="45">
         <f>D18*1.78</f>
         <v>1.78</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="19">
         <v>1</v>
@@ -2654,26 +2666,26 @@
         <v>7.29</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H19" s="45">
         <f>D19*0.6</f>
         <v>0.6</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
@@ -2683,26 +2695,26 @@
         <v>9.99</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" s="45">
         <f>D20*3.74</f>
         <v>3.74</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="19">
         <v>1</v>
@@ -2712,26 +2724,26 @@
         <v>11.47</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="45">
         <f>D21*5.93</f>
         <v>5.93</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D22" s="19">
         <v>4</v>
@@ -2741,26 +2753,26 @@
         <v>35.06</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="H22" s="45">
         <f>D22*1.8</f>
         <v>7.2</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D23" s="19">
         <v>1</v>
@@ -2770,26 +2782,26 @@
         <v>8.99</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="45">
         <f>D23*10*0.45</f>
         <v>4.5</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -2799,25 +2811,25 @@
         <v>10</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H24" s="45">
         <v>3</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
@@ -2827,26 +2839,26 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25" s="45">
         <f>D25*23</f>
         <v>23</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
@@ -2856,26 +2868,26 @@
         <v>8.99</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H26" s="45">
         <f>D26*2.9</f>
         <v>2.9</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D27" s="19">
         <v>1</v>
@@ -2885,26 +2897,26 @@
         <v>6.99</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H27" s="45">
         <f>D27*0.92</f>
         <v>0.92</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" s="19">
         <v>1</v>
@@ -2914,26 +2926,26 @@
         <v>66.75</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="45">
         <f>D28*1</f>
         <v>1</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" s="19">
         <v>1</v>
@@ -2943,23 +2955,23 @@
         <v>22.3</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D30" s="19">
         <v>1</v>
@@ -2969,20 +2981,20 @@
         <v>7.59</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H30" s="45">
         <f>D30*7.61</f>
         <v>7.61</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -3001,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="D32" s="19">
         <v>1</v>
@@ -3011,26 +3023,26 @@
         <v>11.89</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H32" s="45">
         <f>D32*11.71</f>
         <v>11.71</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="18" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="D33" s="19">
         <v>1</v>
@@ -3039,26 +3051,26 @@
         <v>0</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H33" s="45">
         <f>D33*2.27</f>
         <v>2.27</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" s="19">
         <v>1</v>
@@ -3068,55 +3080,55 @@
         <v>6.95</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H34" s="45">
         <f>D34*3.62</f>
         <v>3.62</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D35" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="41">
-        <f>D35*8.99</f>
-        <v>26.97</v>
+        <f>8.99+9.99</f>
+        <v>18.98</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="H35" s="45">
         <f>D35*3.27</f>
-        <v>9.81</v>
+        <v>6.54</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>208</v>
+        <v>109</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="18" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D36" s="19">
         <v>1</v>
@@ -3126,26 +3138,26 @@
         <v>11.44</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H36" s="45">
         <f>D36*2.09</f>
         <v>2.09</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D37" s="19">
         <v>1</v>
@@ -3155,236 +3167,255 @@
         <v>7.98</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H37" s="45">
         <f>D37*2.39</f>
         <v>2.39</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="52"/>
+      <c r="C38" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="19">
+        <v>1</v>
+      </c>
+      <c r="E38" s="41">
+        <v>5.48</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H38" s="45">
+        <v>0.39</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="52"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="19">
+      <c r="C40" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="19">
         <v>1</v>
       </c>
-      <c r="E39" s="41">
-        <f>D39*512</f>
+      <c r="E40" s="41">
+        <f>D40*512</f>
         <v>512</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="45">
-        <f>D39*649</f>
-        <v>649</v>
-      </c>
-      <c r="I39" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="19">
-        <v>2</v>
-      </c>
-      <c r="E40" s="41">
-        <f>D40*57.92</f>
-        <v>115.84</v>
       </c>
       <c r="F40" s="27" t="s">
         <v>122</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40" s="45">
-        <f>D40*23.9</f>
-        <v>47.8</v>
+        <f>D40*649</f>
+        <v>649</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="52"/>
+      <c r="C41" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="19">
+        <v>2</v>
+      </c>
+      <c r="E41" s="41">
+        <f>D41*57.92</f>
+        <v>115.84</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="45">
+        <f>D41*23.9</f>
+        <v>47.8</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="52"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="19">
-        <v>1</v>
-      </c>
-      <c r="E42" s="41">
-        <f>D42*8.99</f>
-        <v>8.99</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="45">
-        <f>D42*0.49</f>
-        <v>0.49</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
       <c r="C43" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="19">
         <v>1</v>
       </c>
       <c r="E43" s="41">
-        <f>D43*36.62</f>
-        <v>36.619999999999997</v>
+        <f>D43*8.99</f>
+        <v>8.99</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="H43" s="45">
-        <f>D43*8.21</f>
-        <v>8.2100000000000009</v>
+        <f>D43*0.49</f>
+        <v>0.49</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="18" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="D44" s="19">
         <v>1</v>
       </c>
       <c r="E44" s="41">
-        <f>D44*18.98</f>
+        <f>D44*36.62</f>
+        <v>36.619999999999997</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="45">
+        <f>D44*8.21</f>
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="19">
+        <v>1</v>
+      </c>
+      <c r="E45" s="41">
+        <f>D45*18.98</f>
         <v>18.98</v>
       </c>
-      <c r="F44" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="45">
-        <f>D44*21.01</f>
+      <c r="F45" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="45">
+        <f>D45*21.01</f>
         <v>21.01</v>
       </c>
-      <c r="I44" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="8"/>
-      <c r="C45" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="23">
+      <c r="I45" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
+      <c r="C46" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="23">
         <v>1</v>
       </c>
-      <c r="E45" s="43">
-        <f>D45*5.17</f>
+      <c r="E46" s="43">
+        <f>D46*5.17</f>
         <v>5.17</v>
       </c>
-      <c r="F45" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="47">
+      <c r="F46" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="47">
         <v>0.49</v>
       </c>
-      <c r="I45" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="3"/>
+      <c r="I46" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -3392,11 +3423,19 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3439,7 +3478,7 @@
     <hyperlink ref="F20" r:id="rId33" xr:uid="{42FBD7C3-0102-44F3-BFBC-F953FFE0801A}"/>
     <hyperlink ref="F16" r:id="rId34" xr:uid="{D5220A37-D358-4132-BF40-7C26EE121670}"/>
     <hyperlink ref="F21" r:id="rId35" xr:uid="{9B9A782D-9D85-4EB4-A906-F3AAE71544DF}"/>
-    <hyperlink ref="I44" r:id="rId36" xr:uid="{AB72A20D-298F-4EDB-92A6-1D82BE7790A0}"/>
+    <hyperlink ref="I45" r:id="rId36" xr:uid="{AB72A20D-298F-4EDB-92A6-1D82BE7790A0}"/>
     <hyperlink ref="F34" r:id="rId37" xr:uid="{4851C431-9D1E-43E3-9817-EB97FCD103A6}"/>
     <hyperlink ref="I22" r:id="rId38" xr:uid="{8EBDEDDC-2DD3-454F-BAA2-0F402F0AF7AC}"/>
     <hyperlink ref="F22" r:id="rId39" xr:uid="{8285B365-1FA5-4528-8CD1-ED418C452941}"/>
@@ -3460,25 +3499,27 @@
     <hyperlink ref="I36" r:id="rId54" xr:uid="{ECAF7888-3CCC-46F3-B265-059FF9EC5067}"/>
     <hyperlink ref="F35" r:id="rId55" xr:uid="{4545286D-0C93-47A6-B9F1-0F0759957510}"/>
     <hyperlink ref="F36" r:id="rId56" xr:uid="{05E1778E-32DE-4DBC-9082-DFE38BC1FEEA}"/>
-    <hyperlink ref="F42" r:id="rId57" xr:uid="{9D6FDAAC-1731-42CB-8CF0-E2FB3F84002C}"/>
+    <hyperlink ref="F43" r:id="rId57" xr:uid="{9D6FDAAC-1731-42CB-8CF0-E2FB3F84002C}"/>
     <hyperlink ref="I37" r:id="rId58" xr:uid="{9ABCB213-94D5-4650-B41C-98784FA746EF}"/>
     <hyperlink ref="I34" r:id="rId59" xr:uid="{49E2BB2C-3A7F-4AAA-8AA9-A9DBBFA6AA8E}"/>
     <hyperlink ref="I23" r:id="rId60" xr:uid="{7C861C66-F438-4E65-A343-D37DBD61EDA4}"/>
     <hyperlink ref="I21" r:id="rId61" xr:uid="{159E0B24-D023-465C-8F69-C42CC880CC97}"/>
-    <hyperlink ref="F44" r:id="rId62" xr:uid="{ECB75579-D4E2-4FF5-87D0-0F6AAF9BAF54}"/>
-    <hyperlink ref="F45" r:id="rId63" xr:uid="{4A1EB5A9-21C3-4897-9D45-440418CB1B90}"/>
-    <hyperlink ref="F40" r:id="rId64" xr:uid="{5F6CF9FE-D871-4ECC-8ADC-DF505159E55E}"/>
-    <hyperlink ref="F39" r:id="rId65" xr:uid="{1870EF37-F4A0-40A8-A2E2-E9BEAC2A5096}"/>
+    <hyperlink ref="F45" r:id="rId62" xr:uid="{ECB75579-D4E2-4FF5-87D0-0F6AAF9BAF54}"/>
+    <hyperlink ref="F46" r:id="rId63" xr:uid="{4A1EB5A9-21C3-4897-9D45-440418CB1B90}"/>
+    <hyperlink ref="F41" r:id="rId64" xr:uid="{5F6CF9FE-D871-4ECC-8ADC-DF505159E55E}"/>
+    <hyperlink ref="F40" r:id="rId65" xr:uid="{1870EF37-F4A0-40A8-A2E2-E9BEAC2A5096}"/>
     <hyperlink ref="F37" r:id="rId66" xr:uid="{BABA0E14-15FA-414D-AF92-857F8FC91BDC}"/>
-    <hyperlink ref="I39" r:id="rId67" xr:uid="{D60DAEAA-F879-4258-A165-51A987FD55DF}"/>
-    <hyperlink ref="I40" r:id="rId68" xr:uid="{E95D7704-5E0A-49AA-8F2C-CC1C1852015B}"/>
-    <hyperlink ref="I42" r:id="rId69" xr:uid="{7292E82E-9414-4F3E-9DDD-CA87E381256E}"/>
-    <hyperlink ref="I43" r:id="rId70" xr:uid="{5B4E2C81-4EB2-4B49-ABCB-55E4707471E2}"/>
-    <hyperlink ref="I45" r:id="rId71" xr:uid="{9540456E-E96E-4B38-90BE-FA9FDBFDEE3A}"/>
+    <hyperlink ref="I40" r:id="rId67" xr:uid="{D60DAEAA-F879-4258-A165-51A987FD55DF}"/>
+    <hyperlink ref="I41" r:id="rId68" xr:uid="{E95D7704-5E0A-49AA-8F2C-CC1C1852015B}"/>
+    <hyperlink ref="I43" r:id="rId69" xr:uid="{7292E82E-9414-4F3E-9DDD-CA87E381256E}"/>
+    <hyperlink ref="I44" r:id="rId70" xr:uid="{5B4E2C81-4EB2-4B49-ABCB-55E4707471E2}"/>
+    <hyperlink ref="I46" r:id="rId71" xr:uid="{9540456E-E96E-4B38-90BE-FA9FDBFDEE3A}"/>
+    <hyperlink ref="F38" r:id="rId72" xr:uid="{5B98F336-86D3-44D3-B2D5-08B8BED107AE}"/>
+    <hyperlink ref="I38" r:id="rId73" xr:uid="{782AD4E1-34F5-437A-9DE7-6299F747DE04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
-  <legacyDrawing r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
+  <legacyDrawing r:id="rId75"/>
 </worksheet>
 </file>
 
@@ -3486,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8566A40A-FDA8-47DE-9C3D-14AD50A186E9}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3502,19 +3543,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3522,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="73"/>
@@ -3541,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
@@ -3554,14 +3595,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="78" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3569,16 +3610,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3586,14 +3627,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C6" s="82"/>
       <c r="D6" s="81" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3601,16 +3642,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3618,16 +3659,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -3635,14 +3676,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C9" s="82"/>
       <c r="D9" s="81" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3650,14 +3691,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C10" s="82"/>
       <c r="D10" s="81" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3665,13 +3706,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E11" s="80"/>
     </row>
@@ -3680,16 +3721,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3697,16 +3738,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3714,14 +3755,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C14" s="82"/>
       <c r="D14" s="81" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3729,166 +3770,166 @@
         <v>13</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C15" s="82"/>
       <c r="D15" s="81" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="83" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C16" s="82"/>
       <c r="D16" s="81" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="83" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C17" s="82"/>
       <c r="D17" s="81" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="83" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C18" s="82"/>
       <c r="D18" s="81" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E18" s="80"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="83" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="81" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E19" s="80"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C20" s="82"/>
       <c r="D20" s="81" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C21" s="82"/>
       <c r="D21" s="81" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="84" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="80"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="84" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B23" s="76"/>
       <c r="C23" s="77" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="80"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="84" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B24" s="76"/>
       <c r="C24" s="77" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="79"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="84" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B25" s="76"/>
       <c r="C25" s="77" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D25" s="78"/>
       <c r="E25" s="79"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B26" s="76"/>
       <c r="C26" s="77" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D26" s="78"/>
       <c r="E26" s="79"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="85" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B27" s="86"/>
       <c r="C27" s="87" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D27" s="88"/>
       <c r="E27" s="89"/>

--- a/support/support.xlsx
+++ b/support/support.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Onekkjhvmbbvmjh Drive\Documents\GitHub\iCat\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB8052-908F-4C51-93D9-38C9E1B40B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643D68F0-5258-48BC-96B3-FF9321D2E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>3 meters</t>
   </si>
   <si>
-    <t>Siliconrubber  tube 1x2 mm</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/32999887844.html</t>
   </si>
   <si>
@@ -727,6 +724,9 @@
   </si>
   <si>
     <t>Thermistor - NTC</t>
+  </si>
+  <si>
+    <t>Silicon rubber  tube 1x2 mm</t>
   </si>
 </sst>
 </file>
@@ -734,8 +734,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1433,7 +1433,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="97">
@@ -1529,34 +1529,34 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -1569,13 +1569,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2073,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,12 +2099,12 @@
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
       <c r="E2" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="95"/>
       <c r="G2" s="96"/>
       <c r="H2" s="91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2" s="92"/>
       <c r="J2" s="93"/>
@@ -2115,22 +2115,22 @@
         <v>0</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>141</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>142</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="38" t="s">
         <v>141</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>142</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>27</v>
@@ -2226,10 +2226,10 @@
       </c>
       <c r="L6" s="54"/>
       <c r="M6" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="N6" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -2383,7 +2383,7 @@
         <v>29</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M10" s="58">
         <f>SUM(E40:E41)</f>
@@ -2422,7 +2422,7 @@
         <v>29</v>
       </c>
       <c r="L11" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M11" s="58">
         <f>SUM(E41)</f>
@@ -2503,7 +2503,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M13" s="60">
         <f>M12+M10+M9+M8+M7</f>
@@ -2542,7 +2542,7 @@
         <v>28</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M14" s="62">
         <f>M7+M8+M9+M11+M12</f>
@@ -2585,7 +2585,7 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="19">
         <v>1</v>
@@ -2595,7 +2595,7 @@
         <v>7.77</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>29</v>
@@ -2605,7 +2605,7 @@
         <v>3.79</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>29</v>
@@ -2627,7 +2627,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="19">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         <v>6.99</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>28</v>
@@ -2647,7 +2647,7 @@
         <v>1.78</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>29</v>
@@ -2656,7 +2656,7 @@
     <row r="19" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="19">
         <v>1</v>
@@ -2666,17 +2666,17 @@
         <v>7.29</v>
       </c>
       <c r="F19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="H19" s="45">
         <f>D19*0.6</f>
         <v>0.6</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>29</v>
@@ -2685,7 +2685,7 @@
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
@@ -2695,7 +2695,7 @@
         <v>9.99</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>48</v>
@@ -2705,7 +2705,7 @@
         <v>3.74</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>29</v>
@@ -2714,7 +2714,7 @@
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="19">
         <v>1</v>
@@ -2724,7 +2724,7 @@
         <v>11.47</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>29</v>
@@ -2734,7 +2734,7 @@
         <v>5.93</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>29</v>
@@ -2743,7 +2743,7 @@
     <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="19">
         <v>4</v>
@@ -2753,7 +2753,7 @@
         <v>35.06</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>29</v>
@@ -2763,16 +2763,16 @@
         <v>7.2</v>
       </c>
       <c r="I22" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="19">
         <v>1</v>
@@ -2782,7 +2782,7 @@
         <v>8.99</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>36</v>
@@ -2792,16 +2792,16 @@
         <v>4.5</v>
       </c>
       <c r="I23" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -2811,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>36</v>
@@ -2820,16 +2820,16 @@
         <v>3</v>
       </c>
       <c r="I24" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
@@ -2839,7 +2839,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>29</v>
@@ -2849,7 +2849,7 @@
         <v>23</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>29</v>
@@ -2858,7 +2858,7 @@
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
@@ -2868,26 +2868,26 @@
         <v>8.99</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" s="45">
         <f>D26*2.9</f>
         <v>2.9</v>
       </c>
       <c r="I26" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="19">
         <v>1</v>
@@ -2897,20 +2897,20 @@
         <v>6.99</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H27" s="45">
         <f>D27*0.92</f>
         <v>0.92</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>45</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -2971,7 +2971,7 @@
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="18" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="D30" s="19">
         <v>1</v>
@@ -2991,7 +2991,7 @@
         <v>7.61</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>29</v>
@@ -3013,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="19">
         <v>1</v>
@@ -3023,17 +3023,17 @@
         <v>11.89</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H32" s="45">
         <f>D32*11.71</f>
         <v>11.71</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J32" s="21" t="s">
         <v>28</v>
@@ -3042,7 +3042,7 @@
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="19">
         <v>1</v>
@@ -3051,26 +3051,26 @@
         <v>0</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H33" s="45">
         <f>D33*2.27</f>
         <v>2.27</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="19">
         <v>1</v>
@@ -3080,7 +3080,7 @@
         <v>6.95</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>29</v>
@@ -3090,7 +3090,7 @@
         <v>3.62</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J34" s="21" t="s">
         <v>29</v>
@@ -3099,7 +3099,7 @@
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="19">
         <v>2</v>
@@ -3109,7 +3109,7 @@
         <v>18.98</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>29</v>
@@ -3119,16 +3119,16 @@
         <v>6.54</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="19">
         <v>1</v>
@@ -3138,26 +3138,26 @@
         <v>11.44</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H36" s="45">
         <f>D36*2.09</f>
         <v>2.09</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="19">
         <v>1</v>
@@ -3167,26 +3167,26 @@
         <v>7.98</v>
       </c>
       <c r="F37" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="H37" s="45">
         <f>D37*2.39</f>
         <v>2.39</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" s="19">
         <v>1</v>
@@ -3195,16 +3195,16 @@
         <v>5.48</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H38" s="45">
         <v>0.39</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J38" s="21" t="s">
         <v>36</v>
@@ -3226,7 +3226,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="19">
         <v>1</v>
@@ -3236,7 +3236,7 @@
         <v>512</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>29</v>
@@ -3246,7 +3246,7 @@
         <v>649</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J40" s="21" t="s">
         <v>29</v>
@@ -3255,7 +3255,7 @@
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="19">
         <v>2</v>
@@ -3265,7 +3265,7 @@
         <v>115.84</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>29</v>
@@ -3275,7 +3275,7 @@
         <v>47.8</v>
       </c>
       <c r="I41" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J41" s="21" t="s">
         <v>29</v>
@@ -3297,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="19">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>8.99</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>29</v>
@@ -3317,7 +3317,7 @@
         <v>0.49</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J43" s="21" t="s">
         <v>29</v>
@@ -3326,7 +3326,7 @@
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="19">
         <v>1</v>
@@ -3336,26 +3336,26 @@
         <v>36.619999999999997</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H44" s="45">
         <f>D44*8.21</f>
         <v>8.2100000000000009</v>
       </c>
       <c r="I44" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="19">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>18.98</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>29</v>
@@ -3375,7 +3375,7 @@
         <v>21.01</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J45" s="21" t="s">
         <v>29</v>
@@ -3384,7 +3384,7 @@
     <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="23">
         <v>1</v>
@@ -3394,7 +3394,7 @@
         <v>5.17</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>29</v>
@@ -3403,7 +3403,7 @@
         <v>0.49</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>29</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -3527,7 +3527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8566A40A-FDA8-47DE-9C3D-14AD50A186E9}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3543,19 +3543,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="D1" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>152</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>155</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="73"/>
@@ -3582,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
@@ -3595,14 +3595,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="80" t="s">
         <v>157</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3610,16 +3610,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="E5" s="80" t="s">
         <v>160</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3627,14 +3627,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="82"/>
       <c r="D6" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="80" t="s">
         <v>162</v>
-      </c>
-      <c r="E6" s="80" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3642,16 +3642,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="80" t="s">
         <v>164</v>
-      </c>
-      <c r="E7" s="80" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3659,16 +3659,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="80" t="s">
         <v>166</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -3676,14 +3676,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="82"/>
       <c r="D9" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="80" t="s">
         <v>168</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3691,14 +3691,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="82"/>
       <c r="D10" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="80" t="s">
         <v>170</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3706,13 +3706,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="80"/>
     </row>
@@ -3721,16 +3721,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="80" t="s">
         <v>173</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3738,16 +3738,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="80" t="s">
         <v>175</v>
-      </c>
-      <c r="E13" s="80" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3755,14 +3755,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="82"/>
       <c r="D14" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="80" t="s">
         <v>177</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3770,166 +3770,166 @@
         <v>13</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="82"/>
       <c r="D15" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="80" t="s">
         <v>179</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>181</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>182</v>
       </c>
       <c r="C16" s="82"/>
       <c r="D16" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="82"/>
       <c r="D17" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="80" t="s">
         <v>185</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="82"/>
       <c r="D18" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="80"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="80"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="82"/>
       <c r="D20" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="80" t="s">
         <v>192</v>
-      </c>
-      <c r="E20" s="80" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="82"/>
       <c r="D21" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="80" t="s">
         <v>195</v>
-      </c>
-      <c r="E21" s="80" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="C22" s="77" t="s">
         <v>198</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>199</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="80"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="76"/>
       <c r="C23" s="77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="80"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="76"/>
       <c r="C24" s="77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="79"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" s="76"/>
       <c r="C25" s="77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="78"/>
       <c r="E25" s="79"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="76"/>
       <c r="C26" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="78"/>
       <c r="E26" s="79"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="86"/>
       <c r="C27" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D27" s="88"/>
       <c r="E27" s="89"/>

--- a/support/support.xlsx
+++ b/support/support.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Onekkjhvmbbvmjh Drive\Documents\GitHub\iCat\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643D68F0-5258-48BC-96B3-FF9321D2E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE5A656-1D15-448A-9C3C-B07E33BED0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="216">
   <si>
     <t>Item</t>
   </si>
@@ -727,6 +727,9 @@
   </si>
   <si>
     <t>Silicon rubber  tube 1x2 mm</t>
+  </si>
+  <si>
+    <t>Pinout diagram of CNC shield:</t>
   </si>
 </sst>
 </file>
@@ -1690,60 +1693,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>708024</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>537799</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obrázek 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F24E73-289E-4673-AABC-5BE437E6EFC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8661399" y="190500"/>
-          <a:ext cx="4020775" cy="3438525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>384175</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1758,16 +1717,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="11295" b="9160"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8337550" y="3794125"/>
-          <a:ext cx="6756400" cy="6550025"/>
+          <a:off x="1270000" y="6076950"/>
+          <a:ext cx="6756400" cy="5210175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2073,9 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3527,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8566A40A-FDA8-47DE-9C3D-14AD50A186E9}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3941,6 +3897,9 @@
       <c r="D29" s="90"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="74" t="s">
+        <v>215</v>
+      </c>
       <c r="D30" s="90"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">

--- a/support/support.xlsx
+++ b/support/support.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Onekkjhvmbbvmjh Drive\Documents\GitHub\iCat\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE5A656-1D15-448A-9C3C-B07E33BED0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E2CE80-D355-4F87-A67A-DB4076D91D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -2031,7 +2031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3483,7 +3485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8566A40A-FDA8-47DE-9C3D-14AD50A186E9}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>

--- a/support/support.xlsx
+++ b/support/support.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Onekkjhvmbbvmjh Drive\Documents\GitHub\iCat\support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imgcascz-my.sharepoint.com/personal/osvoboda_img_cas_cz/Documents/txt/iCat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E2CE80-D355-4F87-A67A-DB4076D91D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{76E2CE80-D355-4F87-A67A-DB4076D91D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8291E5D2-C0BB-485D-99BE-1F5DD5A9C0AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="components" sheetId="1" r:id="rId1"/>
-    <sheet name="pinout" sheetId="3" r:id="rId2"/>
+    <sheet name="comparison" sheetId="4" r:id="rId1"/>
+    <sheet name="components" sheetId="1" r:id="rId2"/>
+    <sheet name="pinout diagram" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="254">
   <si>
     <t>Item</t>
   </si>
@@ -507,9 +508,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Option 1</t>
   </si>
   <si>
@@ -730,6 +728,123 @@
   </si>
   <si>
     <t>Pinout diagram of CNC shield:</t>
+  </si>
+  <si>
+    <t>Axial rotation</t>
+  </si>
+  <si>
+    <t>Image resolution</t>
+  </si>
+  <si>
+    <t>Multi positioning</t>
+  </si>
+  <si>
+    <t>Modularity</t>
+  </si>
+  <si>
+    <t>Ease of assembly</t>
+  </si>
+  <si>
+    <t>In-built temperature control</t>
+  </si>
+  <si>
+    <t>Suitability for remote control</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>$$$</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19465594</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23749300</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23749304</t>
+  </si>
+  <si>
+    <t>VAST (Union Biometrica)</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20639868</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22159032</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23403568</t>
+  </si>
+  <si>
+    <t>Other custom-made devices</t>
+  </si>
+  <si>
+    <t>$$</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25946260</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24023880</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28700724</t>
+  </si>
+  <si>
+    <t>Magnetic and acoustic based devices</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30487638/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/33602914</t>
+  </si>
+  <si>
+    <t>iCat</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>3D printed</t>
+  </si>
+  <si>
+    <t>https://github.com/osvobo/iCat/</t>
+  </si>
+  <si>
+    <t>Lightsheet/Open SPIM</t>
+  </si>
+  <si>
+    <t>Autonomous mode</t>
+  </si>
+  <si>
+    <t>Hyperlink</t>
   </si>
 </sst>
 </file>
@@ -740,13 +855,99 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -754,14 +955,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -769,22 +969,19 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF333333"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -793,54 +990,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -852,30 +1001,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1432,242 +1581,409 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1678,6 +1994,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1693,23 +2016,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Obrázek 2">
+        <xdr:cNvPr id="2" name="Obrázek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A60BADE-9CFD-438B-97B5-D245CFC8BD08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95415B84-428F-43F9-8633-3D723E49B7F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +2047,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1270000" y="6076950"/>
+          <a:off x="8791575" y="200025"/>
           <a:ext cx="6756400" cy="5210175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1744,7 +2067,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1754,42 +2077,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -1819,12 +2142,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -1854,6 +2194,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1915,13 +2272,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1930,6 +2280,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1994,11 +2351,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2028,1372 +2405,1856 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9ABA47-8A92-4E22-A380-CD4BCCFC16B6}">
+  <dimension ref="B1:Q14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="67.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="86.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{D6CCD562-7391-47F8-8D5B-37BFDCC6E5E0}"/>
+    <hyperlink ref="M4" r:id="rId2" xr:uid="{0475F911-189F-4166-A5BA-13750F16E900}"/>
+    <hyperlink ref="M5" r:id="rId3" xr:uid="{DAB8133E-1D46-4887-952C-592C08B43237}"/>
+    <hyperlink ref="M6" r:id="rId4" xr:uid="{2404EAFB-ED7D-4B58-853A-08AB61F9EAD9}"/>
+    <hyperlink ref="M7" r:id="rId5" xr:uid="{97EC6C63-31C2-4AD1-B72D-D291EE6D120B}"/>
+    <hyperlink ref="M8" r:id="rId6" xr:uid="{15673D53-6C72-4850-B7AA-279FEC8A900E}"/>
+    <hyperlink ref="M9" r:id="rId7" xr:uid="{7126DE53-E1A9-496D-A2BF-CA6DBF6767B2}"/>
+    <hyperlink ref="M10" r:id="rId8" xr:uid="{F62AE89D-9E58-48FD-A13F-1EDD3F748FDC}"/>
+    <hyperlink ref="M11" r:id="rId9" xr:uid="{8D45276E-854D-4711-8BE9-A5BB0CE519EA}"/>
+    <hyperlink ref="M12" r:id="rId10" xr:uid="{88FB2C6E-2051-4BFD-8EDE-69213B19358E}"/>
+    <hyperlink ref="M13" r:id="rId11" xr:uid="{C442258E-0D18-4280-8A23-9EF04C649ABB}"/>
+    <hyperlink ref="M14" r:id="rId12" xr:uid="{DD2619CA-7C7C-4D5F-928B-EB3119C59C9C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="21"/>
+    <col min="6" max="6" width="32" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="20"/>
+    <col min="12" max="12" width="24.85546875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="94" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>27</v>
+      <c r="N3" s="55" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="38">
         <v>1</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="86">
         <f>D4*27.6</f>
         <v>27.6</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="39">
         <f>D4*26.71</f>
         <v>26.71</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="99" t="s">
         <v>29</v>
       </c>
+      <c r="L4" s="56" t="str">
+        <f>B4</f>
+        <v>Electronics</v>
+      </c>
+      <c r="M4" s="57">
+        <f>SUM(E4:E16)</f>
+        <v>175.1</v>
+      </c>
+      <c r="N4" s="57">
+        <f>SUM(H4:H16)</f>
+        <v>128.44999999999999</v>
+      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="42">
         <v>1</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="89">
         <f>D5*39.99</f>
         <v>39.99</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="43">
         <f>D5*63</f>
         <v>63</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="100" t="s">
         <v>29</v>
       </c>
+      <c r="L5" s="58" t="str">
+        <f>B18</f>
+        <v>Accessories</v>
+      </c>
+      <c r="M5" s="59">
+        <f>SUM(E18:E30)</f>
+        <v>222.4</v>
+      </c>
+      <c r="N5" s="59">
+        <f>SUM(H18:H30)</f>
+        <v>62.18</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="42">
         <v>1</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="89">
         <f>D6*4.47</f>
         <v>4.47</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="43">
         <f>D6*0.52</f>
         <v>0.52</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="54" t="s">
-        <v>143</v>
+      <c r="L6" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="59">
+        <f>SUM(E32:E37)</f>
+        <v>57.239999999999995</v>
+      </c>
+      <c r="N6" s="59">
+        <f>SUM(H32:H37)</f>
+        <v>28.62</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="42">
         <v>1</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="89">
         <f>D7*7.99</f>
         <v>7.99</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="43">
         <f>D7*2.41</f>
         <v>2.41</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="55" t="str">
-        <f>B4</f>
-        <v>Electronics</v>
-      </c>
-      <c r="M7" s="56">
-        <f>SUM(E4:E16)</f>
-        <v>175.1</v>
-      </c>
-      <c r="N7" s="56">
-        <f>SUM(H4:H16)</f>
-        <v>128.44999999999999</v>
+      <c r="L7" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="59">
+        <f>SUM(E40:E41)</f>
+        <v>627.84</v>
+      </c>
+      <c r="N7" s="59">
+        <f>SUM(H40:H41)</f>
+        <v>696.8</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="42">
         <v>2</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="92">
         <f>9.99*D8</f>
         <v>19.98</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="43">
         <f>D8*1.88</f>
         <v>3.76</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="57" t="str">
-        <f>B18</f>
-        <v>Accessories</v>
-      </c>
-      <c r="M8" s="58">
-        <f>SUM(E18:E30)</f>
-        <v>222.4</v>
-      </c>
-      <c r="N8" s="58">
-        <f>SUM(H18:H30)</f>
-        <v>62.18</v>
+      <c r="L8" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="59">
+        <f>SUM(E41)</f>
+        <v>115.84</v>
+      </c>
+      <c r="N8" s="59">
+        <f>SUM(H41)</f>
+        <v>47.8</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="42">
         <v>2</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="89">
         <f>D9*16.93</f>
         <v>33.86</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="43">
         <f>D9*9.16</f>
         <v>18.32</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="58">
-        <f>SUM(E32:E37)</f>
-        <v>57.239999999999995</v>
-      </c>
-      <c r="N9" s="58">
-        <f>SUM(H32:H37)</f>
-        <v>28.62</v>
+      <c r="L9" s="58" t="str">
+        <f>B43</f>
+        <v>Tools</v>
+      </c>
+      <c r="M9" s="59">
+        <f>SUM(E43:E46)</f>
+        <v>69.760000000000005</v>
+      </c>
+      <c r="N9" s="59">
+        <f>SUM(H43:H46)</f>
+        <v>30.2</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="42">
         <v>1</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="89">
         <f>D10*9.79</f>
         <v>9.7899999999999991</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="43">
         <f>D10*3.23</f>
         <v>3.23</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="M10" s="58">
-        <f>SUM(E40:E41)</f>
-        <v>627.84</v>
-      </c>
-      <c r="N10" s="58">
-        <f>SUM(H40:H41)</f>
-        <v>696.8</v>
+      <c r="M10" s="61">
+        <f>M9+M7+M6+M5+M4</f>
+        <v>1152.3399999999999</v>
+      </c>
+      <c r="N10" s="61">
+        <f>N9+N7+N6+N5+N4</f>
+        <v>946.25</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="42">
         <v>1</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="89">
         <f>D11*2.39</f>
         <v>2.39</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="43">
         <v>0.36</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" s="58">
-        <f>SUM(E41)</f>
-        <v>115.84</v>
-      </c>
-      <c r="N11" s="58">
-        <f>SUM(H41)</f>
-        <v>47.8</v>
+      <c r="L11" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="M11" s="63">
+        <f>M4+M5+M6+M8+M9</f>
+        <v>640.34</v>
+      </c>
+      <c r="N11" s="63">
+        <f>N4+N5+N6+N8+N9</f>
+        <v>297.25</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="42">
         <v>1</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="89">
         <f>D12*5.49</f>
         <v>5.49</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="43">
         <f>D12*1.53</f>
         <v>1.53</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="57" t="str">
-        <f>B43</f>
-        <v>Tools</v>
-      </c>
-      <c r="M12" s="58">
-        <f>SUM(E43:E46)</f>
-        <v>69.760000000000005</v>
-      </c>
-      <c r="N12" s="58">
-        <f>SUM(H43:H46)</f>
-        <v>30.2</v>
-      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="42">
         <v>1</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="89">
         <f>D13*5.49</f>
         <v>5.49</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="43">
         <f>D13*1.52</f>
         <v>1.52</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="M13" s="60">
-        <f>M12+M10+M9+M8+M7</f>
-        <v>1152.3399999999999</v>
-      </c>
-      <c r="N13" s="60">
-        <f>N12+N10+N9+N8+N7</f>
-        <v>946.25</v>
-      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="42">
         <v>1</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="89">
         <f>D14*9.29</f>
         <v>9.2899999999999991</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="43">
         <v>1.73</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="M14" s="62">
-        <f>M7+M8+M9+M11+M12</f>
-        <v>640.34</v>
-      </c>
-      <c r="N14" s="62">
-        <f>N7+N8+N9+N11+N12</f>
-        <v>297.25</v>
-      </c>
     </row>
     <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="42">
         <v>1</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="89">
         <f>D15*0.99</f>
         <v>0.99</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="43">
         <f>D15*1.57</f>
         <v>1.57</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="42">
         <v>1</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="89">
         <f>D16*7.77</f>
         <v>7.77</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="43">
         <f>D16*3.79</f>
         <v>3.79</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="52"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="100"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="42">
         <v>1</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="89">
         <f>D18*6.99</f>
         <v>6.99</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="43">
         <f>D18*1.78</f>
         <v>1.78</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="42">
         <v>1</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="89">
         <f>D19*7.29</f>
         <v>7.29</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="43">
         <f>D19*0.6</f>
         <v>0.6</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="42">
         <v>1</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="89">
         <f>D20*9.99</f>
         <v>9.99</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="43">
         <f>D20*3.74</f>
         <v>3.74</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="42">
         <v>1</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="89">
         <f>D21*11.47</f>
         <v>11.47</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="43">
         <f>D21*5.93</f>
         <v>5.93</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="42">
         <v>4</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="89">
         <f>7.99+8.39+8.59+10.09</f>
         <v>35.06</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="43">
         <f>D22*1.8</f>
         <v>7.2</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="100" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="42">
         <v>1</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="89">
         <f>D23*8.99</f>
         <v>8.99</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="43">
         <f>D23*10*0.45</f>
         <v>4.5</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="100" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="42">
         <v>1</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="89">
         <f>D24*10</f>
         <v>10</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="43">
         <v>3</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="100" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="42">
         <v>1</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="89">
         <f>D25*19.99</f>
         <v>19.989999999999998</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="43">
         <f>D25*23</f>
         <v>23</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="42">
         <v>1</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="89">
         <f>D26*8.99</f>
         <v>8.99</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="43">
         <f>D26*2.9</f>
         <v>2.9</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="100" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="42">
         <v>1</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="89">
         <f>D27*6.99</f>
         <v>6.99</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="43">
         <f>D27*0.92</f>
         <v>0.92</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="100" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="42">
         <v>1</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="89">
         <f>25*2.67</f>
         <v>66.75</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="43">
         <f>D28*1</f>
         <v>1</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="100" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="42">
         <v>1</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="89">
         <f>5*4.46</f>
         <v>22.3</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="21"/>
+      <c r="J29" s="100"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="19">
+      <c r="B30" s="36"/>
+      <c r="C30" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="42">
         <v>1</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="89">
         <f>D30*7.59</f>
         <v>7.59</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="43">
         <f>D30*7.61</f>
         <v>7.61</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="52"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="100"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="42">
         <v>1</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="89">
         <f>D32*11.89</f>
         <v>11.89</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="43">
         <f>D32*11.71</f>
         <v>11.71</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="100" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="36"/>
+      <c r="C33" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="42">
         <v>1</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="89">
         <v>0</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="43">
         <f>D33*2.27</f>
         <v>2.27</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="100" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="42">
         <v>1</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="89">
         <f>D34*6.95</f>
         <v>6.95</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="43">
         <f>D34*3.62</f>
         <v>3.62</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="J34" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="36"/>
+      <c r="C35" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="42">
         <v>2</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="89">
         <f>8.99+9.99</f>
         <v>18.98</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="43">
         <f>D35*3.27</f>
         <v>6.54</v>
       </c>
-      <c r="I35" s="30" t="s">
+      <c r="I35" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="100" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="18" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="42">
         <v>1</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="89">
         <f>D36*11.44</f>
         <v>11.44</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="43">
         <f>D36*2.09</f>
         <v>2.09</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="J36" s="21" t="s">
+      <c r="J36" s="100" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="18" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="42">
         <v>1</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="89">
         <f>D37*7.98</f>
         <v>7.98</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="43">
         <f>D37*2.39</f>
         <v>2.39</v>
       </c>
-      <c r="I37" s="30" t="s">
+      <c r="I37" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="100" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="36"/>
+      <c r="C38" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="42">
+        <v>1</v>
+      </c>
+      <c r="E38" s="89">
+        <v>5.48</v>
+      </c>
+      <c r="F38" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="D38" s="19">
+      <c r="H38" s="43">
+        <v>0.39</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J38" s="100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="36"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="100"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="42">
         <v>1</v>
       </c>
-      <c r="E38" s="41">
-        <v>5.48</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H38" s="45">
-        <v>0.39</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="52"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="19">
-        <v>1</v>
-      </c>
-      <c r="E40" s="41">
+      <c r="E40" s="89">
         <f>D40*512</f>
         <v>512</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="43">
         <f>D40*649</f>
         <v>649</v>
       </c>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="J40" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="42">
         <v>2</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="89">
         <f>D41*57.92</f>
         <v>115.84</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="45">
+      <c r="H41" s="43">
         <f>D41*23.9</f>
         <v>47.8</v>
       </c>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="J41" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="52"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="100"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="42">
         <v>1</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="89">
         <f>D43*8.99</f>
         <v>8.99</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H43" s="43">
         <f>D43*0.49</f>
         <v>0.49</v>
       </c>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="J43" s="21" t="s">
+      <c r="J43" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="36"/>
+      <c r="C44" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="42">
         <v>1</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="89">
         <f>D44*36.62</f>
         <v>36.619999999999997</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="43">
         <f>D44*8.21</f>
         <v>8.2100000000000009</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="100" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="18" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="42">
         <v>1</v>
       </c>
-      <c r="E45" s="41">
+      <c r="E45" s="89">
         <f>D45*18.98</f>
         <v>18.98</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="43">
         <f>D45*21.01</f>
         <v>21.01</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="8"/>
-      <c r="C46" s="22" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="50">
         <v>1</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="94">
         <f>D46*5.17</f>
         <v>5.17</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="51">
         <v>0.49</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="J46" s="25" t="s">
+      <c r="J46" s="103" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="3"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="54"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="B48" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3481,431 +4342,432 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8566A40A-FDA8-47DE-9C3D-14AD50A186E9}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="B1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="74" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="74" customWidth="1"/>
-    <col min="4" max="4" width="27" style="74" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="74" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.5703125" style="74"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2"/>
+    <col min="8" max="8" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="D2" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="E2" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="F2" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="H2" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="64">
+        <v>0</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="69">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70" t="s">
+      <c r="D3" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="73"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="65">
+        <v>1</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="75">
-        <v>1</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="77" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="74"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="65">
+        <v>2</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="75">
-        <v>2</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78" t="s">
+      <c r="F5" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="80" t="s">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="65">
+        <v>3</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="75">
-        <v>3</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="77" t="s">
+      <c r="E6" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="F6" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="80" t="s">
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="65">
+        <v>4</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="80" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="75">
-        <v>4</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="81" t="s">
+      <c r="F7" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="80" t="s">
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="65">
+        <v>5</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="80" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="75">
-        <v>5</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="81" t="s">
+      <c r="F8" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="80" t="s">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="65">
+        <v>6</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="80" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="75">
-        <v>6</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="81" t="s">
+      <c r="F9" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="80" t="s">
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="65">
+        <v>7</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="80" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="75">
-        <v>7</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="81" t="s">
+      <c r="F10" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="80" t="s">
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="65">
+        <v>8</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="71"/>
+      <c r="E11" s="80" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="75">
-        <v>8</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="81" t="s">
+      <c r="F11" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="80" t="s">
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="65">
+        <v>9</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="80" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="75">
-        <v>9</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="81" t="s">
+      <c r="F12" s="75"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="65">
+        <v>10</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="80"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="75">
-        <v>10</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="81" t="s">
+      <c r="F13" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="80" t="s">
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="65">
+        <v>11</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="80" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="75">
-        <v>11</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="81" t="s">
+      <c r="F14" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="80" t="s">
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="65">
+        <v>12</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="80" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="75">
-        <v>12</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="81" t="s">
+      <c r="F15" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="80" t="s">
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="65">
+        <v>13</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="80" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="75">
-        <v>13</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="81" t="s">
+      <c r="F16" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="80" t="s">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="66" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="C17" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="81" t="s">
+      <c r="F17" s="75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="80" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="C18" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="71"/>
+      <c r="E18" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="81" t="s">
+      <c r="F18" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="80" t="s">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="66" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+      <c r="C19" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="81" t="s">
+      <c r="F19" s="75"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="80"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="C20" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="81" t="s">
+      <c r="F20" s="75"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="80"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="C21" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="71"/>
+      <c r="E21" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="81" t="s">
+      <c r="F21" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="80" t="s">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="66" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="C22" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="81" t="s">
+      <c r="F22" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="80" t="s">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="67" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="C23" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="D23" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="E23" s="80"/>
+      <c r="F23" s="75"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="80"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
+      <c r="C24" s="78"/>
+      <c r="D24" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77" t="s">
+      <c r="E24" s="80"/>
+      <c r="F24" s="75"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="80"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="C25" s="78"/>
+      <c r="D25" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77" t="s">
+      <c r="E25" s="78"/>
+      <c r="F25" s="74"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+      <c r="C26" s="78"/>
+      <c r="D26" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="77" t="s">
+      <c r="E26" s="78"/>
+      <c r="F26" s="74"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+      <c r="C27" s="78"/>
+      <c r="D27" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="77" t="s">
+      <c r="E27" s="78"/>
+      <c r="F27" s="74"/>
+    </row>
+    <row r="28" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
+      <c r="C28" s="79"/>
+      <c r="D28" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="90"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="90"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="90"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="90"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="76"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/support/support.xlsx
+++ b/support/support.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imgcascz-my.sharepoint.com/personal/osvoboda_img_cas_cz/Documents/txt/iCat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Onekkjhvmbbvmjh Drive\Documents\GitHub\iCAT\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{76E2CE80-D355-4F87-A67A-DB4076D91D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8291E5D2-C0BB-485D-99BE-1F5DD5A9C0AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40AB2E2-110A-4872-BB5B-CEC64F8815A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="4" r:id="rId1"/>
@@ -1755,29 +1755,11 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1801,18 +1783,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1984,6 +1954,36 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2471,40 +2471,40 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="94" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="96" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="96" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="96" t="s">
         <v>227</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>229</v>
       </c>
       <c r="N3" s="4"/>
@@ -2513,18 +2513,18 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="9" t="s">
         <v>230</v>
       </c>
       <c r="N4" s="4"/>
@@ -2533,18 +2533,18 @@
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="9" t="s">
         <v>231</v>
       </c>
       <c r="N5" s="4"/>
@@ -2553,40 +2553,40 @@
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="10" t="s">
         <v>236</v>
       </c>
       <c r="N6" s="4"/>
@@ -2595,18 +2595,18 @@
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="10" t="s">
         <v>237</v>
       </c>
       <c r="N7" s="4"/>
@@ -2615,18 +2615,18 @@
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16" t="s">
+      <c r="B8" s="99"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="10" t="s">
         <v>238</v>
       </c>
       <c r="N8" s="4"/>
@@ -2635,40 +2635,40 @@
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="9" t="s">
         <v>241</v>
       </c>
       <c r="N9" s="4"/>
@@ -2677,18 +2677,18 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="9" t="s">
         <v>242</v>
       </c>
       <c r="N10" s="4"/>
@@ -2697,18 +2697,18 @@
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="9" t="s">
         <v>243</v>
       </c>
       <c r="N11" s="4"/>
@@ -2717,40 +2717,40 @@
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="98" t="s">
         <v>240</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="10" t="s">
         <v>245</v>
       </c>
       <c r="N12" s="4"/>
@@ -2759,18 +2759,18 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="10" t="s">
         <v>246</v>
       </c>
       <c r="N13" s="4"/>
@@ -2779,40 +2779,40 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="13" t="s">
         <v>250</v>
       </c>
       <c r="N14" s="4"/>
@@ -2822,6 +2822,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="L9:L11"/>
@@ -2838,34 +2866,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M3" r:id="rId1" xr:uid="{D6CCD562-7391-47F8-8D5B-37BFDCC6E5E0}"/>
@@ -2890,1371 +2890,1371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="21"/>
-    <col min="6" max="6" width="32" style="20" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="20"/>
-    <col min="12" max="12" width="24.85546875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="3.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="15"/>
+    <col min="6" max="6" width="32" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="14"/>
+    <col min="12" max="12" width="24.85546875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="25" t="s">
+      <c r="F2" s="101"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="28"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="45" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="28">
         <v>1</v>
       </c>
-      <c r="E4" s="86">
+      <c r="E4" s="76">
         <f>D4*27.6</f>
         <v>27.6</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="29">
         <f>D4*26.71</f>
         <v>26.71</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="99" t="s">
+      <c r="J4" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="56" t="str">
+      <c r="L4" s="46" t="str">
         <f>B4</f>
         <v>Electronics</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="47">
         <f>SUM(E4:E16)</f>
         <v>175.1</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="47">
         <f>SUM(H4:H16)</f>
         <v>128.44999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="32">
         <v>1</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="79">
         <f>D5*39.99</f>
         <v>39.99</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="91" t="s">
+      <c r="G5" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="33">
         <f>D5*63</f>
         <v>63</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="58" t="str">
+      <c r="L5" s="48" t="str">
         <f>B18</f>
         <v>Accessories</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="49">
         <f>SUM(E18:E30)</f>
         <v>222.4</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="49">
         <f>SUM(H18:H30)</f>
         <v>62.18</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="32">
         <v>1</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="79">
         <f>D6*4.47</f>
         <v>4.47</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="33">
         <f>D6*0.52</f>
         <v>0.52</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="49">
         <f>SUM(E32:E37)</f>
         <v>57.239999999999995</v>
       </c>
-      <c r="N6" s="59">
+      <c r="N6" s="49">
         <f>SUM(H32:H37)</f>
         <v>28.62</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="32">
         <v>1</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="79">
         <f>D7*7.99</f>
         <v>7.99</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="33">
         <f>D7*2.41</f>
         <v>2.41</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="100" t="s">
+      <c r="J7" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="49">
         <f>SUM(E40:E41)</f>
         <v>627.84</v>
       </c>
-      <c r="N7" s="59">
+      <c r="N7" s="49">
         <f>SUM(H40:H41)</f>
         <v>696.8</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="32">
         <v>2</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="82">
         <f>9.99*D8</f>
         <v>19.98</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="33">
         <f>D8*1.88</f>
         <v>3.76</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="100" t="s">
+      <c r="J8" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="49">
         <f>SUM(E41)</f>
         <v>115.84</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="49">
         <f>SUM(H41)</f>
         <v>47.8</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="32">
         <v>2</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="79">
         <f>D9*16.93</f>
         <v>33.86</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="33">
         <f>D9*9.16</f>
         <v>18.32</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="100" t="s">
+      <c r="J9" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="58" t="str">
+      <c r="L9" s="48" t="str">
         <f>B43</f>
         <v>Tools</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="49">
         <f>SUM(E43:E46)</f>
         <v>69.760000000000005</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="49">
         <f>SUM(H43:H46)</f>
         <v>30.2</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="32">
         <v>1</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="79">
         <f>D10*9.79</f>
         <v>9.7899999999999991</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="33">
         <f>D10*3.23</f>
         <v>3.23</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="51">
         <f>M9+M7+M6+M5+M4</f>
         <v>1152.3399999999999</v>
       </c>
-      <c r="N10" s="61">
+      <c r="N10" s="51">
         <f>N9+N7+N6+N5+N4</f>
         <v>946.25</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="32">
         <v>1</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="79">
         <f>D11*2.39</f>
         <v>2.39</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="33">
         <v>0.36</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="53">
         <f>M4+M5+M6+M8+M9</f>
         <v>640.34</v>
       </c>
-      <c r="N11" s="63">
+      <c r="N11" s="53">
         <f>N4+N5+N6+N8+N9</f>
         <v>297.25</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="32">
         <v>1</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="79">
         <f>D12*5.49</f>
         <v>5.49</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="33">
         <f>D12*1.53</f>
         <v>1.53</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="100" t="s">
+      <c r="J12" s="90" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="32">
         <v>1</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="79">
         <f>D13*5.49</f>
         <v>5.49</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="33">
         <f>D13*1.52</f>
         <v>1.52</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="100" t="s">
+      <c r="J13" s="90" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="32">
         <v>1</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="79">
         <f>D14*9.29</f>
         <v>9.2899999999999991</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="33">
         <v>1.73</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="100" t="s">
+      <c r="J14" s="90" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="32">
         <v>1</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="79">
         <f>D15*0.99</f>
         <v>0.99</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="33">
         <f>D15*1.57</f>
         <v>1.57</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="100" t="s">
+      <c r="J15" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="32">
         <v>1</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="79">
         <f>D16*7.77</f>
         <v>7.77</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="33">
         <f>D16*3.79</f>
         <v>3.79</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="100" t="s">
+      <c r="J16" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="100"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="90"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="32">
         <v>1</v>
       </c>
-      <c r="E18" s="89">
+      <c r="E18" s="79">
         <f>D18*6.99</f>
         <v>6.99</v>
       </c>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="91" t="s">
+      <c r="G18" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="33">
         <f>D18*1.78</f>
         <v>1.78</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="100" t="s">
+      <c r="J18" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="32">
         <v>1</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="79">
         <f>D19*7.29</f>
         <v>7.29</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="91" t="s">
+      <c r="G19" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="33">
         <f>D19*0.6</f>
         <v>0.6</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="100" t="s">
+      <c r="J19" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="32">
         <v>1</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="79">
         <f>D20*9.99</f>
         <v>9.99</v>
       </c>
-      <c r="F20" s="90" t="s">
+      <c r="F20" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="91" t="s">
+      <c r="G20" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="33">
         <f>D20*3.74</f>
         <v>3.74</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="100" t="s">
+      <c r="J20" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="32">
         <v>1</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="79">
         <f>D21*11.47</f>
         <v>11.47</v>
       </c>
-      <c r="F21" s="90" t="s">
+      <c r="F21" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="91" t="s">
+      <c r="G21" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="33">
         <f>D21*5.93</f>
         <v>5.93</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="100" t="s">
+      <c r="J21" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="41" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="32">
         <v>4</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="79">
         <f>7.99+8.39+8.59+10.09</f>
         <v>35.06</v>
       </c>
-      <c r="F22" s="90" t="s">
+      <c r="F22" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="91" t="s">
+      <c r="G22" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="33">
         <f>D22*1.8</f>
         <v>7.2</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="100" t="s">
+      <c r="J22" s="90" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
-      <c r="C23" s="41" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="32">
         <v>1</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23" s="79">
         <f>D23*8.99</f>
         <v>8.99</v>
       </c>
-      <c r="F23" s="90" t="s">
+      <c r="F23" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="91" t="s">
+      <c r="G23" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="33">
         <f>D23*10*0.45</f>
         <v>4.5</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="100" t="s">
+      <c r="J23" s="90" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="32">
         <v>1</v>
       </c>
-      <c r="E24" s="89">
+      <c r="E24" s="79">
         <f>D24*10</f>
         <v>10</v>
       </c>
-      <c r="F24" s="90" t="s">
+      <c r="F24" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="91" t="s">
+      <c r="G24" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="33">
         <v>3</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="100" t="s">
+      <c r="J24" s="90" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="32">
         <v>1</v>
       </c>
-      <c r="E25" s="89">
+      <c r="E25" s="79">
         <f>D25*19.99</f>
         <v>19.989999999999998</v>
       </c>
-      <c r="F25" s="90" t="s">
+      <c r="F25" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="91" t="s">
+      <c r="G25" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="33">
         <f>D25*23</f>
         <v>23</v>
       </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="J25" s="100" t="s">
+      <c r="J25" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="41" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="32">
         <v>1</v>
       </c>
-      <c r="E26" s="89">
+      <c r="E26" s="79">
         <f>D26*8.99</f>
         <v>8.99</v>
       </c>
-      <c r="F26" s="90" t="s">
+      <c r="F26" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="91" t="s">
+      <c r="G26" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="33">
         <f>D26*2.9</f>
         <v>2.9</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="100" t="s">
+      <c r="J26" s="90" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="41" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="32">
         <v>1</v>
       </c>
-      <c r="E27" s="89">
+      <c r="E27" s="79">
         <f>D27*6.99</f>
         <v>6.99</v>
       </c>
-      <c r="F27" s="90" t="s">
+      <c r="F27" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="33">
         <f>D27*0.92</f>
         <v>0.92</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="100" t="s">
+      <c r="J27" s="90" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="41" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="32">
         <v>1</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="79">
         <f>25*2.67</f>
         <v>66.75</v>
       </c>
-      <c r="F28" s="90" t="s">
+      <c r="F28" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="91" t="s">
+      <c r="G28" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="33">
         <f>D28*1</f>
         <v>1</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="100" t="s">
+      <c r="J28" s="90" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
-      <c r="C29" s="41" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="32">
         <v>1</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="79">
         <f>5*4.46</f>
         <v>22.3</v>
       </c>
-      <c r="F29" s="90" t="s">
+      <c r="F29" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="91" t="s">
+      <c r="G29" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="101" t="s">
+      <c r="H29" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="102" t="s">
+      <c r="I29" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="100"/>
+      <c r="J29" s="90"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="41" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="32">
         <v>1</v>
       </c>
-      <c r="E30" s="89">
+      <c r="E30" s="79">
         <f>D30*7.59</f>
         <v>7.59</v>
       </c>
-      <c r="F30" s="90" t="s">
+      <c r="F30" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="91" t="s">
+      <c r="G30" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="33">
         <f>D30*7.61</f>
         <v>7.61</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="100" t="s">
+      <c r="J30" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="100"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="90"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="32">
         <v>1</v>
       </c>
-      <c r="E32" s="89">
+      <c r="E32" s="79">
         <f>D32*11.89</f>
         <v>11.89</v>
       </c>
-      <c r="F32" s="90" t="s">
+      <c r="F32" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="91" t="s">
+      <c r="G32" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="33">
         <f>D32*11.71</f>
         <v>11.71</v>
       </c>
-      <c r="I32" s="44" t="s">
+      <c r="I32" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="100" t="s">
+      <c r="J32" s="90" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
-      <c r="C33" s="41" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="32">
         <v>1</v>
       </c>
-      <c r="E33" s="89">
+      <c r="E33" s="79">
         <v>0</v>
       </c>
-      <c r="F33" s="90" t="s">
+      <c r="F33" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="91" t="s">
+      <c r="G33" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="33">
         <f>D33*2.27</f>
         <v>2.27</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="100" t="s">
+      <c r="J33" s="90" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="36"/>
-      <c r="C34" s="41" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="32">
         <v>1</v>
       </c>
-      <c r="E34" s="89">
+      <c r="E34" s="79">
         <f>D34*6.95</f>
         <v>6.95</v>
       </c>
-      <c r="F34" s="90" t="s">
+      <c r="F34" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="91" t="s">
+      <c r="G34" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="33">
         <f>D34*3.62</f>
         <v>3.62</v>
       </c>
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="100" t="s">
+      <c r="J34" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="36"/>
-      <c r="C35" s="41" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="32">
         <v>2</v>
       </c>
-      <c r="E35" s="89">
+      <c r="E35" s="79">
         <f>8.99+9.99</f>
         <v>18.98</v>
       </c>
-      <c r="F35" s="90" t="s">
+      <c r="F35" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="91" t="s">
+      <c r="G35" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="33">
         <f>D35*3.27</f>
         <v>6.54</v>
       </c>
-      <c r="I35" s="44" t="s">
+      <c r="I35" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="J35" s="100" t="s">
+      <c r="J35" s="90" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="41" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="32">
         <v>1</v>
       </c>
-      <c r="E36" s="89">
+      <c r="E36" s="79">
         <f>D36*11.44</f>
         <v>11.44</v>
       </c>
-      <c r="F36" s="90" t="s">
+      <c r="F36" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="91" t="s">
+      <c r="G36" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="H36" s="43">
+      <c r="H36" s="33">
         <f>D36*2.09</f>
         <v>2.09</v>
       </c>
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J36" s="100" t="s">
+      <c r="J36" s="90" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
-      <c r="C37" s="41" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D37" s="32">
         <v>1</v>
       </c>
-      <c r="E37" s="89">
+      <c r="E37" s="79">
         <f>D37*7.98</f>
         <v>7.98</v>
       </c>
-      <c r="F37" s="90" t="s">
+      <c r="F37" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="91" t="s">
+      <c r="G37" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="43">
+      <c r="H37" s="33">
         <f>D37*2.39</f>
         <v>2.39</v>
       </c>
-      <c r="I37" s="44" t="s">
+      <c r="I37" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="J37" s="100" t="s">
+      <c r="J37" s="90" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
-      <c r="C38" s="41" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="32">
         <v>1</v>
       </c>
-      <c r="E38" s="89">
+      <c r="E38" s="79">
         <v>5.48</v>
       </c>
-      <c r="F38" s="90" t="s">
+      <c r="F38" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="G38" s="91" t="s">
+      <c r="G38" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="43">
+      <c r="H38" s="33">
         <v>0.39</v>
       </c>
-      <c r="I38" s="44" t="s">
+      <c r="I38" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="J38" s="100" t="s">
+      <c r="J38" s="90" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="36"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="100"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="90"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="32">
         <v>1</v>
       </c>
-      <c r="E40" s="89">
+      <c r="E40" s="79">
         <f>D40*512</f>
         <v>512</v>
       </c>
-      <c r="F40" s="90" t="s">
+      <c r="F40" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="91" t="s">
+      <c r="G40" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="33">
         <f>D40*649</f>
         <v>649</v>
       </c>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="100" t="s">
+      <c r="J40" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
-      <c r="C41" s="41" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="32">
         <v>2</v>
       </c>
-      <c r="E41" s="89">
+      <c r="E41" s="79">
         <f>D41*57.92</f>
         <v>115.84</v>
       </c>
-      <c r="F41" s="90" t="s">
+      <c r="F41" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="91" t="s">
+      <c r="G41" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="43">
+      <c r="H41" s="33">
         <f>D41*23.9</f>
         <v>47.8</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="J41" s="100" t="s">
+      <c r="J41" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="36"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="100"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="90"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="32">
         <v>1</v>
       </c>
-      <c r="E43" s="89">
+      <c r="E43" s="79">
         <f>D43*8.99</f>
         <v>8.99</v>
       </c>
-      <c r="F43" s="90" t="s">
+      <c r="F43" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="91" t="s">
+      <c r="G43" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H43" s="33">
         <f>D43*0.49</f>
         <v>0.49</v>
       </c>
-      <c r="I43" s="44" t="s">
+      <c r="I43" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="J43" s="100" t="s">
+      <c r="J43" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="36"/>
-      <c r="C44" s="41" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="32">
         <v>1</v>
       </c>
-      <c r="E44" s="89">
+      <c r="E44" s="79">
         <f>D44*36.62</f>
         <v>36.619999999999997</v>
       </c>
-      <c r="F44" s="90" t="s">
+      <c r="F44" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="91" t="s">
+      <c r="G44" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H44" s="43">
+      <c r="H44" s="33">
         <f>D44*8.21</f>
         <v>8.2100000000000009</v>
       </c>
-      <c r="I44" s="44" t="s">
+      <c r="I44" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="J44" s="100" t="s">
+      <c r="J44" s="90" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="36"/>
-      <c r="C45" s="41" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="32">
         <v>1</v>
       </c>
-      <c r="E45" s="89">
+      <c r="E45" s="79">
         <f>D45*18.98</f>
         <v>18.98</v>
       </c>
-      <c r="F45" s="90" t="s">
+      <c r="F45" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="G45" s="91" t="s">
+      <c r="G45" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="33">
         <f>D45*21.01</f>
         <v>21.01</v>
       </c>
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="J45" s="100" t="s">
+      <c r="J45" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="48"/>
-      <c r="C46" s="49" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="50">
+      <c r="D46" s="40">
         <v>1</v>
       </c>
-      <c r="E46" s="94">
+      <c r="E46" s="84">
         <f>D46*5.17</f>
         <v>5.17</v>
       </c>
-      <c r="F46" s="95" t="s">
+      <c r="F46" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="96" t="s">
+      <c r="G46" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="51">
+      <c r="H46" s="41">
         <v>0.49</v>
       </c>
-      <c r="I46" s="52" t="s">
+      <c r="I46" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J46" s="103" t="s">
+      <c r="J46" s="93" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="53"/>
-      <c r="C47" s="54"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="97" t="s">
+      <c r="B49" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="97" t="s">
+      <c r="B50" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4268,73 +4268,73 @@
     <hyperlink ref="F7" r:id="rId4" xr:uid="{95BD2D5D-B214-4213-980C-5ABDE7CCE924}"/>
     <hyperlink ref="F5" r:id="rId5" xr:uid="{F515132A-09E9-4FEC-87B8-F1D321C4CC2D}"/>
     <hyperlink ref="I5" r:id="rId6" xr:uid="{0522C15B-C664-4F55-90CF-1D66B4D0E70C}"/>
-    <hyperlink ref="I6" r:id="rId7" xr:uid="{6B72EF5D-CD9D-4CAE-8FB2-DB03701922F0}"/>
-    <hyperlink ref="I7" r:id="rId8" xr:uid="{D28ED891-7DDB-456B-94D9-45D5B09763CF}"/>
-    <hyperlink ref="I8" r:id="rId9" xr:uid="{A4CCC1D2-B18E-4BDA-8CCE-088EEF840C48}"/>
-    <hyperlink ref="F9" r:id="rId10" xr:uid="{6B8A13B5-53A4-45F1-BA8F-6F6C56662BDC}"/>
-    <hyperlink ref="I9" r:id="rId11" xr:uid="{18E32F79-1CD4-42A0-BA19-107EEDAA607D}"/>
-    <hyperlink ref="F10" r:id="rId12" xr:uid="{8E3DFA15-C63C-4D4F-8FA4-133CBA03DA07}"/>
-    <hyperlink ref="I10" r:id="rId13" xr:uid="{194C30DC-914F-44AD-8CE7-A109757FB736}"/>
-    <hyperlink ref="I11" r:id="rId14" xr:uid="{C05AEB6F-8B7D-4AB3-AF01-DFBDFB3490E5}"/>
-    <hyperlink ref="F14" r:id="rId15" xr:uid="{4CC11042-1ECD-4165-8E6B-D9D3CB0EE68A}"/>
-    <hyperlink ref="I14" r:id="rId16" xr:uid="{53193903-851B-4BC3-A42F-7DB16BADF900}"/>
-    <hyperlink ref="I12" r:id="rId17" xr:uid="{F693857A-E4C9-4430-BABD-8D6F3DBB646C}"/>
-    <hyperlink ref="I13" r:id="rId18" xr:uid="{D1A4CB04-6674-4C36-BCC4-4ADF07D9F6EC}"/>
-    <hyperlink ref="F12" r:id="rId19" xr:uid="{61B8AC57-4AA3-4213-BCDC-9858345060A2}"/>
-    <hyperlink ref="F13" r:id="rId20" xr:uid="{0AAFD64B-15C1-493F-8B6E-6EB371E2B156}"/>
-    <hyperlink ref="I15" r:id="rId21" xr:uid="{B03ACDEC-7EFD-47EC-A4C4-50D5D40BCA0A}"/>
-    <hyperlink ref="F15" r:id="rId22" xr:uid="{F8E36FB6-BB86-492D-A463-F3ACF8B4EFDF}"/>
-    <hyperlink ref="F11" r:id="rId23" xr:uid="{16EBEA37-7F59-4634-A647-62D3D5162046}"/>
-    <hyperlink ref="I28" r:id="rId24" xr:uid="{EC66CDC1-F361-417C-9E34-9288C2A619A4}"/>
-    <hyperlink ref="F28" r:id="rId25" xr:uid="{B95F1567-76D7-4237-A51E-470C9CB78ECF}"/>
-    <hyperlink ref="I30" r:id="rId26" xr:uid="{C601ACC3-2FE3-4864-A905-B0B10CA20E6D}"/>
-    <hyperlink ref="F30" r:id="rId27" xr:uid="{89255A99-0C3B-46C4-ABF9-470DDA754E03}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{83442148-D4CF-41BD-A41A-E2060F8C4E34}"/>
-    <hyperlink ref="F18" r:id="rId29" xr:uid="{4260061F-2A94-4BBB-9E87-FF1B731F2E7E}"/>
-    <hyperlink ref="F19" r:id="rId30" xr:uid="{E141FF46-758A-4F5A-BBD9-67BD8037B014}"/>
-    <hyperlink ref="I19" r:id="rId31" xr:uid="{AD3C756D-2E17-4B5D-9C73-21D9A8C22206}"/>
-    <hyperlink ref="I18" r:id="rId32" xr:uid="{E6E42CD3-F0C5-4CF0-A7EF-4E8B217E9F6C}"/>
-    <hyperlink ref="F20" r:id="rId33" xr:uid="{42FBD7C3-0102-44F3-BFBC-F953FFE0801A}"/>
-    <hyperlink ref="F16" r:id="rId34" xr:uid="{D5220A37-D358-4132-BF40-7C26EE121670}"/>
-    <hyperlink ref="F21" r:id="rId35" xr:uid="{9B9A782D-9D85-4EB4-A906-F3AAE71544DF}"/>
-    <hyperlink ref="I45" r:id="rId36" xr:uid="{AB72A20D-298F-4EDB-92A6-1D82BE7790A0}"/>
-    <hyperlink ref="F34" r:id="rId37" xr:uid="{4851C431-9D1E-43E3-9817-EB97FCD103A6}"/>
-    <hyperlink ref="I22" r:id="rId38" xr:uid="{8EBDEDDC-2DD3-454F-BAA2-0F402F0AF7AC}"/>
-    <hyperlink ref="F22" r:id="rId39" xr:uid="{8285B365-1FA5-4528-8CD1-ED418C452941}"/>
-    <hyperlink ref="F24" r:id="rId40" xr:uid="{86ABFDA0-BBE1-4DB2-ABBE-4D872220F4CC}"/>
-    <hyperlink ref="F25" r:id="rId41" xr:uid="{D66480FD-3DA0-438A-BDB3-91A21A4C02D0}"/>
-    <hyperlink ref="I26" r:id="rId42" xr:uid="{F23B2A72-C1B2-42C1-841D-A52446137A57}"/>
-    <hyperlink ref="I25" r:id="rId43" xr:uid="{703168F9-355C-46B2-AD6A-39C0FBC175FC}"/>
-    <hyperlink ref="I24" r:id="rId44" xr:uid="{7848D008-C0A6-45A7-93B9-291F49387CFC}"/>
-    <hyperlink ref="I20" r:id="rId45" xr:uid="{5AFAD5A2-3F60-46B8-B1A4-19554A441408}"/>
-    <hyperlink ref="F26" r:id="rId46" xr:uid="{F5CDED28-07B3-4F64-93F4-BDDA4656C170}"/>
-    <hyperlink ref="I27" r:id="rId47" xr:uid="{66397AA5-29AD-499B-9C03-4B06DE806E44}"/>
-    <hyperlink ref="F27" r:id="rId48" xr:uid="{B4B41EC4-6A91-4F10-9FE6-630D792C6857}"/>
-    <hyperlink ref="I32" r:id="rId49" xr:uid="{AB50A7E7-D1F9-4DC5-8F1F-442C9E61EB24}"/>
-    <hyperlink ref="I33" r:id="rId50" xr:uid="{5DCEB218-EE99-4E50-AFCD-DF3451168197}"/>
-    <hyperlink ref="F32" r:id="rId51" xr:uid="{65A4C3E1-E04F-4951-8D02-8095F7E08E57}"/>
-    <hyperlink ref="F33" r:id="rId52" xr:uid="{8AE1A54E-062B-4E08-8C90-24E8F8C10BFD}"/>
-    <hyperlink ref="I35" r:id="rId53" xr:uid="{54BEC8BA-D85F-4037-870C-C57CEE9EF76F}"/>
-    <hyperlink ref="I36" r:id="rId54" xr:uid="{ECAF7888-3CCC-46F3-B265-059FF9EC5067}"/>
-    <hyperlink ref="F35" r:id="rId55" xr:uid="{4545286D-0C93-47A6-B9F1-0F0759957510}"/>
-    <hyperlink ref="F36" r:id="rId56" xr:uid="{05E1778E-32DE-4DBC-9082-DFE38BC1FEEA}"/>
-    <hyperlink ref="F43" r:id="rId57" xr:uid="{9D6FDAAC-1731-42CB-8CF0-E2FB3F84002C}"/>
-    <hyperlink ref="I37" r:id="rId58" xr:uid="{9ABCB213-94D5-4650-B41C-98784FA746EF}"/>
-    <hyperlink ref="I34" r:id="rId59" xr:uid="{49E2BB2C-3A7F-4AAA-8AA9-A9DBBFA6AA8E}"/>
-    <hyperlink ref="I23" r:id="rId60" xr:uid="{7C861C66-F438-4E65-A343-D37DBD61EDA4}"/>
-    <hyperlink ref="I21" r:id="rId61" xr:uid="{159E0B24-D023-465C-8F69-C42CC880CC97}"/>
-    <hyperlink ref="F45" r:id="rId62" xr:uid="{ECB75579-D4E2-4FF5-87D0-0F6AAF9BAF54}"/>
-    <hyperlink ref="F46" r:id="rId63" xr:uid="{4A1EB5A9-21C3-4897-9D45-440418CB1B90}"/>
-    <hyperlink ref="F41" r:id="rId64" xr:uid="{5F6CF9FE-D871-4ECC-8ADC-DF505159E55E}"/>
-    <hyperlink ref="F40" r:id="rId65" xr:uid="{1870EF37-F4A0-40A8-A2E2-E9BEAC2A5096}"/>
-    <hyperlink ref="F37" r:id="rId66" xr:uid="{BABA0E14-15FA-414D-AF92-857F8FC91BDC}"/>
-    <hyperlink ref="I40" r:id="rId67" xr:uid="{D60DAEAA-F879-4258-A165-51A987FD55DF}"/>
-    <hyperlink ref="I41" r:id="rId68" xr:uid="{E95D7704-5E0A-49AA-8F2C-CC1C1852015B}"/>
-    <hyperlink ref="I43" r:id="rId69" xr:uid="{7292E82E-9414-4F3E-9DDD-CA87E381256E}"/>
-    <hyperlink ref="I44" r:id="rId70" xr:uid="{5B4E2C81-4EB2-4B49-ABCB-55E4707471E2}"/>
-    <hyperlink ref="I46" r:id="rId71" xr:uid="{9540456E-E96E-4B38-90BE-FA9FDBFDEE3A}"/>
-    <hyperlink ref="F38" r:id="rId72" xr:uid="{5B98F336-86D3-44D3-B2D5-08B8BED107AE}"/>
-    <hyperlink ref="I38" r:id="rId73" xr:uid="{782AD4E1-34F5-437A-9DE7-6299F747DE04}"/>
+    <hyperlink ref="I7" r:id="rId7" xr:uid="{D28ED891-7DDB-456B-94D9-45D5B09763CF}"/>
+    <hyperlink ref="I8" r:id="rId8" xr:uid="{A4CCC1D2-B18E-4BDA-8CCE-088EEF840C48}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{6B8A13B5-53A4-45F1-BA8F-6F6C56662BDC}"/>
+    <hyperlink ref="I9" r:id="rId10" xr:uid="{18E32F79-1CD4-42A0-BA19-107EEDAA607D}"/>
+    <hyperlink ref="F10" r:id="rId11" xr:uid="{8E3DFA15-C63C-4D4F-8FA4-133CBA03DA07}"/>
+    <hyperlink ref="I10" r:id="rId12" xr:uid="{194C30DC-914F-44AD-8CE7-A109757FB736}"/>
+    <hyperlink ref="I11" r:id="rId13" xr:uid="{C05AEB6F-8B7D-4AB3-AF01-DFBDFB3490E5}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{4CC11042-1ECD-4165-8E6B-D9D3CB0EE68A}"/>
+    <hyperlink ref="I14" r:id="rId15" xr:uid="{53193903-851B-4BC3-A42F-7DB16BADF900}"/>
+    <hyperlink ref="I12" r:id="rId16" xr:uid="{F693857A-E4C9-4430-BABD-8D6F3DBB646C}"/>
+    <hyperlink ref="I13" r:id="rId17" xr:uid="{D1A4CB04-6674-4C36-BCC4-4ADF07D9F6EC}"/>
+    <hyperlink ref="F12" r:id="rId18" xr:uid="{61B8AC57-4AA3-4213-BCDC-9858345060A2}"/>
+    <hyperlink ref="F13" r:id="rId19" xr:uid="{0AAFD64B-15C1-493F-8B6E-6EB371E2B156}"/>
+    <hyperlink ref="I15" r:id="rId20" xr:uid="{B03ACDEC-7EFD-47EC-A4C4-50D5D40BCA0A}"/>
+    <hyperlink ref="F15" r:id="rId21" xr:uid="{F8E36FB6-BB86-492D-A463-F3ACF8B4EFDF}"/>
+    <hyperlink ref="F11" r:id="rId22" xr:uid="{16EBEA37-7F59-4634-A647-62D3D5162046}"/>
+    <hyperlink ref="I28" r:id="rId23" xr:uid="{EC66CDC1-F361-417C-9E34-9288C2A619A4}"/>
+    <hyperlink ref="F28" r:id="rId24" xr:uid="{B95F1567-76D7-4237-A51E-470C9CB78ECF}"/>
+    <hyperlink ref="I30" r:id="rId25" xr:uid="{C601ACC3-2FE3-4864-A905-B0B10CA20E6D}"/>
+    <hyperlink ref="F30" r:id="rId26" xr:uid="{89255A99-0C3B-46C4-ABF9-470DDA754E03}"/>
+    <hyperlink ref="F29" r:id="rId27" xr:uid="{83442148-D4CF-41BD-A41A-E2060F8C4E34}"/>
+    <hyperlink ref="F18" r:id="rId28" xr:uid="{4260061F-2A94-4BBB-9E87-FF1B731F2E7E}"/>
+    <hyperlink ref="F19" r:id="rId29" xr:uid="{E141FF46-758A-4F5A-BBD9-67BD8037B014}"/>
+    <hyperlink ref="I19" r:id="rId30" xr:uid="{AD3C756D-2E17-4B5D-9C73-21D9A8C22206}"/>
+    <hyperlink ref="I18" r:id="rId31" xr:uid="{E6E42CD3-F0C5-4CF0-A7EF-4E8B217E9F6C}"/>
+    <hyperlink ref="F20" r:id="rId32" xr:uid="{42FBD7C3-0102-44F3-BFBC-F953FFE0801A}"/>
+    <hyperlink ref="F16" r:id="rId33" xr:uid="{D5220A37-D358-4132-BF40-7C26EE121670}"/>
+    <hyperlink ref="F21" r:id="rId34" xr:uid="{9B9A782D-9D85-4EB4-A906-F3AAE71544DF}"/>
+    <hyperlink ref="I45" r:id="rId35" xr:uid="{AB72A20D-298F-4EDB-92A6-1D82BE7790A0}"/>
+    <hyperlink ref="F34" r:id="rId36" xr:uid="{4851C431-9D1E-43E3-9817-EB97FCD103A6}"/>
+    <hyperlink ref="I22" r:id="rId37" xr:uid="{8EBDEDDC-2DD3-454F-BAA2-0F402F0AF7AC}"/>
+    <hyperlink ref="F22" r:id="rId38" xr:uid="{8285B365-1FA5-4528-8CD1-ED418C452941}"/>
+    <hyperlink ref="F24" r:id="rId39" xr:uid="{86ABFDA0-BBE1-4DB2-ABBE-4D872220F4CC}"/>
+    <hyperlink ref="F25" r:id="rId40" xr:uid="{D66480FD-3DA0-438A-BDB3-91A21A4C02D0}"/>
+    <hyperlink ref="I26" r:id="rId41" xr:uid="{F23B2A72-C1B2-42C1-841D-A52446137A57}"/>
+    <hyperlink ref="I25" r:id="rId42" xr:uid="{703168F9-355C-46B2-AD6A-39C0FBC175FC}"/>
+    <hyperlink ref="I24" r:id="rId43" xr:uid="{7848D008-C0A6-45A7-93B9-291F49387CFC}"/>
+    <hyperlink ref="I20" r:id="rId44" xr:uid="{5AFAD5A2-3F60-46B8-B1A4-19554A441408}"/>
+    <hyperlink ref="F26" r:id="rId45" xr:uid="{F5CDED28-07B3-4F64-93F4-BDDA4656C170}"/>
+    <hyperlink ref="I27" r:id="rId46" xr:uid="{66397AA5-29AD-499B-9C03-4B06DE806E44}"/>
+    <hyperlink ref="F27" r:id="rId47" xr:uid="{B4B41EC4-6A91-4F10-9FE6-630D792C6857}"/>
+    <hyperlink ref="I32" r:id="rId48" xr:uid="{AB50A7E7-D1F9-4DC5-8F1F-442C9E61EB24}"/>
+    <hyperlink ref="I33" r:id="rId49" xr:uid="{5DCEB218-EE99-4E50-AFCD-DF3451168197}"/>
+    <hyperlink ref="F32" r:id="rId50" xr:uid="{65A4C3E1-E04F-4951-8D02-8095F7E08E57}"/>
+    <hyperlink ref="F33" r:id="rId51" xr:uid="{8AE1A54E-062B-4E08-8C90-24E8F8C10BFD}"/>
+    <hyperlink ref="I35" r:id="rId52" xr:uid="{54BEC8BA-D85F-4037-870C-C57CEE9EF76F}"/>
+    <hyperlink ref="I36" r:id="rId53" xr:uid="{ECAF7888-3CCC-46F3-B265-059FF9EC5067}"/>
+    <hyperlink ref="F35" r:id="rId54" xr:uid="{4545286D-0C93-47A6-B9F1-0F0759957510}"/>
+    <hyperlink ref="F36" r:id="rId55" xr:uid="{05E1778E-32DE-4DBC-9082-DFE38BC1FEEA}"/>
+    <hyperlink ref="F43" r:id="rId56" xr:uid="{9D6FDAAC-1731-42CB-8CF0-E2FB3F84002C}"/>
+    <hyperlink ref="I37" r:id="rId57" xr:uid="{9ABCB213-94D5-4650-B41C-98784FA746EF}"/>
+    <hyperlink ref="I34" r:id="rId58" xr:uid="{49E2BB2C-3A7F-4AAA-8AA9-A9DBBFA6AA8E}"/>
+    <hyperlink ref="I23" r:id="rId59" xr:uid="{7C861C66-F438-4E65-A343-D37DBD61EDA4}"/>
+    <hyperlink ref="I21" r:id="rId60" xr:uid="{159E0B24-D023-465C-8F69-C42CC880CC97}"/>
+    <hyperlink ref="F45" r:id="rId61" xr:uid="{ECB75579-D4E2-4FF5-87D0-0F6AAF9BAF54}"/>
+    <hyperlink ref="F46" r:id="rId62" xr:uid="{4A1EB5A9-21C3-4897-9D45-440418CB1B90}"/>
+    <hyperlink ref="F41" r:id="rId63" xr:uid="{5F6CF9FE-D871-4ECC-8ADC-DF505159E55E}"/>
+    <hyperlink ref="F40" r:id="rId64" xr:uid="{1870EF37-F4A0-40A8-A2E2-E9BEAC2A5096}"/>
+    <hyperlink ref="F37" r:id="rId65" xr:uid="{BABA0E14-15FA-414D-AF92-857F8FC91BDC}"/>
+    <hyperlink ref="I40" r:id="rId66" xr:uid="{D60DAEAA-F879-4258-A165-51A987FD55DF}"/>
+    <hyperlink ref="I41" r:id="rId67" xr:uid="{E95D7704-5E0A-49AA-8F2C-CC1C1852015B}"/>
+    <hyperlink ref="I43" r:id="rId68" xr:uid="{7292E82E-9414-4F3E-9DDD-CA87E381256E}"/>
+    <hyperlink ref="I44" r:id="rId69" xr:uid="{5B4E2C81-4EB2-4B49-ABCB-55E4707471E2}"/>
+    <hyperlink ref="I46" r:id="rId70" xr:uid="{9540456E-E96E-4B38-90BE-FA9FDBFDEE3A}"/>
+    <hyperlink ref="F38" r:id="rId71" xr:uid="{5B98F336-86D3-44D3-B2D5-08B8BED107AE}"/>
+    <hyperlink ref="I38" r:id="rId72" xr:uid="{782AD4E1-34F5-437A-9DE7-6299F747DE04}"/>
+    <hyperlink ref="I6" r:id="rId73" xr:uid="{6B72EF5D-CD9D-4CAE-8FB2-DB03701922F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
@@ -4365,37 +4365,37 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="71" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="64">
+      <c r="B3" s="54">
         <v>0</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="73"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="63"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -4404,361 +4404,361 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="65">
+      <c r="B4" s="55">
         <v>1</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="74"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="65">
+      <c r="B5" s="55">
         <v>2</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="78" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="65" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="65">
+      <c r="B6" s="55">
         <v>3</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="65">
+      <c r="B7" s="55">
         <v>4</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="80" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="65" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="65">
+      <c r="B8" s="55">
         <v>5</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="65" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="65">
+      <c r="B9" s="55">
         <v>6</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="65">
+      <c r="B10" s="55">
         <v>7</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="80" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="65" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="65">
+      <c r="B11" s="55">
         <v>8</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="80" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="65" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="65">
+      <c r="B12" s="55">
         <v>9</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="65">
+      <c r="B13" s="55">
         <v>10</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="65" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="65">
+      <c r="B14" s="55">
         <v>11</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="65" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="65">
+      <c r="B15" s="55">
         <v>12</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="80" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="65" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="65">
+      <c r="B16" s="55">
         <v>13</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="80" t="s">
+      <c r="D16" s="61"/>
+      <c r="E16" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="65" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="80" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="65" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="80" t="s">
+      <c r="D18" s="61"/>
+      <c r="E18" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="65" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="80" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="65"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="80" t="s">
+      <c r="D20" s="61"/>
+      <c r="E20" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="75"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="80" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="65" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="80" t="s">
+      <c r="D22" s="61"/>
+      <c r="E22" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="65" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="75"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="70" t="s">
+      <c r="C24" s="68"/>
+      <c r="D24" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="75"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="65"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="70" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="74"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="64"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="70" t="s">
+      <c r="C26" s="68"/>
+      <c r="D26" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="74"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="70" t="s">
+      <c r="C27" s="68"/>
+      <c r="D27" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="74"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="64"/>
     </row>
     <row r="28" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="72" t="s">
+      <c r="C28" s="69"/>
+      <c r="D28" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="76"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="66"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E29" s="3"/>
